--- a/N65_HappyLunch.xlsx
+++ b/N65_HappyLunch.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\apk\git\Happy_Lunch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52902F87-84FF-4988-AA3D-1F65AAAFA755}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEA9927-9736-46E8-857F-EE7182294C3F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15996" windowHeight="8376" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15996" windowHeight="8376" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="194">
   <si>
     <t>NHÓM 65: HAPPY LUNCH</t>
   </si>
@@ -458,6 +459,153 @@
   </si>
   <si>
     <t>Sửa một số bug đang tồn tại</t>
+  </si>
+  <si>
+    <t>Chức năng</t>
+  </si>
+  <si>
+    <t>Người thực hiện</t>
+  </si>
+  <si>
+    <t>Tình trạng</t>
+  </si>
+  <si>
+    <t>Chưa hiện thực</t>
+  </si>
+  <si>
+    <t>Loại</t>
+  </si>
+  <si>
+    <t>Giao diện</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Tìm kiếm</t>
+  </si>
+  <si>
+    <t>Thông báo(chuông)</t>
+  </si>
+  <si>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t>Chọn món ăn</t>
+  </si>
+  <si>
+    <t>Second shop</t>
+  </si>
+  <si>
+    <t>Shopping</t>
+  </si>
+  <si>
+    <t>Trả món ăn</t>
+  </si>
+  <si>
+    <t>Cập nhật thời gian</t>
+  </si>
+  <si>
+    <t>Hiện thị đúng thời gian đã hẹn lấy món ăn</t>
+  </si>
+  <si>
+    <t>Lấy thời gian mà người dùng đầu tiên đặt món hẹn lấy</t>
+  </si>
+  <si>
+    <t>Chọn số lượng muốn trả món ăn</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Kiểm tra tài khoản</t>
+  </si>
+  <si>
+    <t>In ra số coin hiện có</t>
+  </si>
+  <si>
+    <t>Cài đặt tài khoản</t>
+  </si>
+  <si>
+    <t>Đổi thông tin</t>
+  </si>
+  <si>
+    <t>Kiểm tra hóa đơn</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>Chưa đồng bộ</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Quên mật khẩu</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Ordered</t>
+  </si>
+  <si>
+    <t>Cập nhật status</t>
+  </si>
+  <si>
+    <t>Hiện dấu tích (V) nếu đã nhận món ăn, hiện dấu chấm than cảnh báo nếu gần đến giờ lấy món ăn</t>
+  </si>
+  <si>
+    <t>Thuật toán</t>
+  </si>
+  <si>
+    <t>Liên kết database và hiện thực thuật toán làm việc</t>
+  </si>
+  <si>
+    <t>Shop</t>
+  </si>
+  <si>
+    <t>Giống tìm kiếm ở Customer-&gt;Home</t>
+  </si>
+  <si>
+    <t>Thêm item</t>
+  </si>
+  <si>
+    <t>Thêm mới item lên database</t>
+  </si>
+  <si>
+    <t>Nhấn vào món ăn sẽ hiện ra dialog item_detail để chọn vào giỏ hàng -&gt; xác nhận cuối cùng</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa hoặc xóa</t>
+  </si>
+  <si>
+    <t>Sửa item hoặc xóa item</t>
+  </si>
+  <si>
+    <t>Tìm kiếm theo MSSV</t>
+  </si>
+  <si>
+    <t>Khi nhập "30" thì chỉ hiển các MSSV có chứa "30"</t>
+  </si>
+  <si>
+    <t>Thêm coin</t>
+  </si>
+  <si>
+    <t>Nhấn vào SV muốn thêm coin, get dữ liệu money từ box trên (nhớ check null) và coin%10000==0</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Xem lịch sử</t>
+  </si>
+  <si>
+    <t>Xem lại lịch sử nhân viên này đã nhận và làm các món ăn nào</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1159,7 @@
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1140,6 +1288,96 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1149,104 +1387,17 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="16" fontId="11" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2400,7 +2551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
@@ -2419,56 +2570,56 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="25.8">
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
     </row>
     <row r="5" spans="1:9" ht="21">
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
     </row>
     <row r="7" spans="1:9" ht="18">
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="100" t="s">
+      <c r="D7" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="102" t="s">
+      <c r="E7" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="93" t="s">
+      <c r="F7" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="94"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="104" t="s">
+      <c r="G7" s="75"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="91" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18">
-      <c r="B8" s="97"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="103"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="90"/>
       <c r="F8" s="46" t="s">
         <v>60</v>
       </c>
@@ -2478,13 +2629,13 @@
       <c r="H8" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="105"/>
+      <c r="I8" s="92"/>
     </row>
     <row r="9" spans="1:9" ht="18">
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="84" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="48" t="s">
@@ -2503,8 +2654,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="18">
-      <c r="B10" s="89"/>
-      <c r="C10" s="76"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="50" t="s">
         <v>65</v>
       </c>
@@ -2523,8 +2674,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="18">
-      <c r="B11" s="89"/>
-      <c r="C11" s="76"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="50" t="s">
         <v>68</v>
       </c>
@@ -2541,8 +2692,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="18">
-      <c r="B12" s="89"/>
-      <c r="C12" s="76"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="50" t="s">
         <v>70</v>
       </c>
@@ -2559,8 +2710,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.600000000000001" thickBot="1">
-      <c r="B13" s="90"/>
-      <c r="C13" s="77"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="86"/>
       <c r="D13" s="51" t="s">
         <v>71</v>
       </c>
@@ -2578,10 +2729,10 @@
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1">
       <c r="A14" s="52"/>
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="102" t="s">
         <v>93</v>
       </c>
       <c r="D14" s="53" t="s">
@@ -2601,8 +2752,8 @@
     </row>
     <row r="15" spans="1:9" ht="18">
       <c r="A15" s="52"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="73"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="103"/>
       <c r="D15" s="55" t="s">
         <v>128</v>
       </c>
@@ -2620,8 +2771,8 @@
     </row>
     <row r="16" spans="1:9" ht="18">
       <c r="A16" s="52"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="73"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="103"/>
       <c r="D16" s="55" t="s">
         <v>131</v>
       </c>
@@ -2639,8 +2790,8 @@
     </row>
     <row r="17" spans="1:9" ht="18">
       <c r="A17" s="52"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="73"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="103"/>
       <c r="D17" s="55" t="s">
         <v>129</v>
       </c>
@@ -2658,8 +2809,8 @@
     </row>
     <row r="18" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A18" s="52"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="74"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="104"/>
       <c r="D18" s="56" t="s">
         <v>130</v>
       </c>
@@ -2677,10 +2828,10 @@
     </row>
     <row r="19" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A19" s="52"/>
-      <c r="B19" s="82">
+      <c r="B19" s="96">
         <v>43712</v>
       </c>
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="84" t="s">
         <v>92</v>
       </c>
       <c r="D19" s="48" t="s">
@@ -2700,8 +2851,8 @@
     </row>
     <row r="20" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A20" s="52"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="76"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="85"/>
       <c r="D20" s="50" t="s">
         <v>133</v>
       </c>
@@ -2719,8 +2870,8 @@
     </row>
     <row r="21" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A21" s="52"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="76"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="85"/>
       <c r="D21" s="50" t="s">
         <v>134</v>
       </c>
@@ -2738,8 +2889,8 @@
     </row>
     <row r="22" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A22" s="52"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="76"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="85"/>
       <c r="D22" s="50" t="s">
         <v>76</v>
       </c>
@@ -2757,8 +2908,8 @@
     </row>
     <row r="23" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A23" s="52"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="77"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="86"/>
       <c r="D23" s="51" t="s">
         <v>77</v>
       </c>
@@ -2776,10 +2927,10 @@
     </row>
     <row r="24" spans="1:9" ht="18">
       <c r="A24" s="52"/>
-      <c r="B24" s="85" t="s">
+      <c r="B24" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="102" t="s">
         <v>103</v>
       </c>
       <c r="D24" s="53" t="s">
@@ -2799,8 +2950,8 @@
     </row>
     <row r="25" spans="1:9" ht="18">
       <c r="A25" s="52"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="73"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="103"/>
       <c r="D25" s="55" t="s">
         <v>135</v>
       </c>
@@ -2818,8 +2969,8 @@
     </row>
     <row r="26" spans="1:9" ht="18">
       <c r="A26" s="52"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="73"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="103"/>
       <c r="D26" s="55" t="s">
         <v>136</v>
       </c>
@@ -2837,8 +2988,8 @@
     </row>
     <row r="27" spans="1:9" ht="18">
       <c r="A27" s="52"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="73"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="103"/>
       <c r="D27" s="55" t="s">
         <v>100</v>
       </c>
@@ -2856,8 +3007,8 @@
     </row>
     <row r="28" spans="1:9" ht="18">
       <c r="A28" s="52"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="78"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="105"/>
       <c r="D28" s="57" t="s">
         <v>101</v>
       </c>
@@ -2875,7 +3026,7 @@
     </row>
     <row r="29" spans="1:9" ht="18">
       <c r="A29" s="52"/>
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="79" t="s">
         <v>125</v>
       </c>
       <c r="C29" s="106">
@@ -2898,8 +3049,8 @@
     </row>
     <row r="30" spans="1:9" ht="18">
       <c r="A30" s="52"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="76"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="85"/>
       <c r="D30" s="50" t="s">
         <v>138</v>
       </c>
@@ -2917,8 +3068,8 @@
     </row>
     <row r="31" spans="1:9" ht="18">
       <c r="A31" s="52"/>
-      <c r="B31" s="89"/>
-      <c r="C31" s="76"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="85"/>
       <c r="D31" s="50" t="s">
         <v>127</v>
       </c>
@@ -2936,8 +3087,8 @@
     </row>
     <row r="32" spans="1:9" ht="18">
       <c r="A32" s="52"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="76"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="85"/>
       <c r="D32" s="50" t="s">
         <v>140</v>
       </c>
@@ -2955,8 +3106,8 @@
     </row>
     <row r="33" spans="1:9" ht="18">
       <c r="A33" s="52"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="77"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="86"/>
       <c r="D33" s="51" t="s">
         <v>137</v>
       </c>
@@ -2974,7 +3125,7 @@
     </row>
     <row r="34" spans="1:9" ht="18">
       <c r="A34" s="52"/>
-      <c r="B34" s="85">
+      <c r="B34" s="99">
         <v>43588</v>
       </c>
       <c r="C34" s="107">
@@ -2997,8 +3148,8 @@
     </row>
     <row r="35" spans="1:9" ht="18">
       <c r="A35" s="52"/>
-      <c r="B35" s="86"/>
-      <c r="C35" s="73"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="103"/>
       <c r="D35" s="55" t="s">
         <v>143</v>
       </c>
@@ -3016,8 +3167,8 @@
     </row>
     <row r="36" spans="1:9" ht="18">
       <c r="A36" s="52"/>
-      <c r="B36" s="86"/>
-      <c r="C36" s="73"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="103"/>
       <c r="D36" s="55" t="s">
         <v>139</v>
       </c>
@@ -3035,8 +3186,8 @@
     </row>
     <row r="37" spans="1:9" ht="18">
       <c r="A37" s="52"/>
-      <c r="B37" s="86"/>
-      <c r="C37" s="73"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="103"/>
       <c r="D37" s="55" t="s">
         <v>142</v>
       </c>
@@ -3054,8 +3205,8 @@
     </row>
     <row r="38" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A38" s="52"/>
-      <c r="B38" s="87"/>
-      <c r="C38" s="78"/>
+      <c r="B38" s="101"/>
+      <c r="C38" s="105"/>
       <c r="D38" s="57" t="s">
         <v>141</v>
       </c>
@@ -3221,6 +3372,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B38"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="F7:H7"/>
@@ -3231,18 +3392,458 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="C34:C38"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AA2E22-B916-4D99-A156-90D9CC0DC7BC}">
+  <dimension ref="B2:H28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="18">
+      <c r="B2" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="108" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="108" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="108" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="108" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="108" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="108" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/N65_HappyLunch.xlsx
+++ b/N65_HappyLunch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\apk\git\Happy_Lunch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AndroidStudioProjects\Happy_Lunch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEA9927-9736-46E8-857F-EE7182294C3F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6F9F58-81CB-41F1-B664-D98B37AAD36D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15996" windowHeight="8376" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="200">
   <si>
     <t>NHÓM 65: HAPPY LUNCH</t>
   </si>
@@ -599,13 +599,31 @@
     <t>Nhấn vào SV muốn thêm coin, get dữ liệu money từ box trên (nhớ check null) và coin%10000==0</t>
   </si>
   <si>
-    <t>Profile</t>
-  </si>
-  <si>
-    <t>Xem lịch sử</t>
-  </si>
-  <si>
-    <t>Xem lại lịch sử nhân viên này đã nhận và làm các món ăn nào</t>
+    <t>Học</t>
+  </si>
+  <si>
+    <t>Tài</t>
+  </si>
+  <si>
+    <t>Để sau</t>
+  </si>
+  <si>
+    <t>Hiệu</t>
+  </si>
+  <si>
+    <t>Thiết kế dữ liệu database và hiện thực chức năng trong button (kèm QR code)</t>
+  </si>
+  <si>
+    <t>Vy</t>
+  </si>
+  <si>
+    <t>Ngân</t>
+  </si>
+  <si>
+    <t>UAT</t>
+  </si>
+  <si>
+    <t>Linear Layout</t>
   </si>
 </sst>
 </file>
@@ -613,14 +631,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -729,6 +754,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -750,7 +790,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1153,115 +1193,130 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="11" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="11" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1270,135 +1325,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="16" fontId="12" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="16" fontId="12" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="16" fontId="12" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="16" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="15" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1682,20 +1744,20 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="5.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="47.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="42.109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="47.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="42.140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="25.8">
+    <row r="3" spans="2:8" ht="26.25">
       <c r="B3" s="66" t="s">
         <v>0</v>
       </c>
@@ -1896,17 +1958,17 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="5.5546875" style="65" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.21875" customWidth="1"/>
-    <col min="6" max="6" width="39.6640625" customWidth="1"/>
-    <col min="7" max="7" width="66.88671875" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="65" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="39.7109375" customWidth="1"/>
+    <col min="7" max="7" width="66.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="25.8">
+    <row r="3" spans="2:8" ht="26.25">
       <c r="B3" s="66" t="s">
         <v>0</v>
       </c>
@@ -1960,7 +2022,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" ht="37.5">
       <c r="B10" s="6">
         <v>1</v>
       </c>
@@ -2555,71 +2617,71 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="45"/>
     <col min="2" max="2" width="9" style="61" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="61" customWidth="1"/>
-    <col min="4" max="4" width="50.5546875" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.21875" style="45" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.44140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="61" customWidth="1"/>
+    <col min="4" max="4" width="50.5703125" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" style="45" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="45" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" style="59" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="59" customWidth="1"/>
     <col min="10" max="16384" width="9" style="45"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="25.8">
-      <c r="B3" s="72" t="s">
+    <row r="3" spans="1:9" ht="26.25">
+      <c r="B3" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
     </row>
     <row r="5" spans="1:9" ht="21">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-    </row>
-    <row r="7" spans="1:9" ht="18">
-      <c r="B7" s="77" t="s">
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+    </row>
+    <row r="7" spans="1:9" ht="18.75">
+      <c r="B7" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="87" t="s">
+      <c r="D7" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="74" t="s">
+      <c r="F7" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="75"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="91" t="s">
+      <c r="G7" s="96"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="106" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18">
-      <c r="B8" s="78"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="90"/>
+    <row r="8" spans="1:9" ht="18.75">
+      <c r="B8" s="99"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="105"/>
       <c r="F8" s="46" t="s">
         <v>60</v>
       </c>
@@ -2629,13 +2691,13 @@
       <c r="H8" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="92"/>
-    </row>
-    <row r="9" spans="1:9" ht="18">
-      <c r="B9" s="79" t="s">
+      <c r="I8" s="107"/>
+    </row>
+    <row r="9" spans="1:9" ht="18.75">
+      <c r="B9" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="75" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="48" t="s">
@@ -2653,9 +2715,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18">
-      <c r="B10" s="80"/>
-      <c r="C10" s="85"/>
+    <row r="10" spans="1:9" ht="18.75">
+      <c r="B10" s="91"/>
+      <c r="C10" s="76"/>
       <c r="D10" s="50" t="s">
         <v>65</v>
       </c>
@@ -2673,9 +2735,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18">
-      <c r="B11" s="80"/>
-      <c r="C11" s="85"/>
+    <row r="11" spans="1:9" ht="18.75">
+      <c r="B11" s="91"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="50" t="s">
         <v>68</v>
       </c>
@@ -2691,9 +2753,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18">
-      <c r="B12" s="80"/>
-      <c r="C12" s="85"/>
+    <row r="12" spans="1:9" ht="18.75">
+      <c r="B12" s="91"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="50" t="s">
         <v>70</v>
       </c>
@@ -2709,9 +2771,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.600000000000001" thickBot="1">
-      <c r="B13" s="81"/>
-      <c r="C13" s="86"/>
+    <row r="13" spans="1:9" ht="19.5" thickBot="1">
+      <c r="B13" s="92"/>
+      <c r="C13" s="77"/>
       <c r="D13" s="51" t="s">
         <v>71</v>
       </c>
@@ -2729,10 +2791,10 @@
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1">
       <c r="A14" s="52"/>
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="102" t="s">
+      <c r="C14" s="72" t="s">
         <v>93</v>
       </c>
       <c r="D14" s="53" t="s">
@@ -2750,10 +2812,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18">
+    <row r="15" spans="1:9" ht="18.75">
       <c r="A15" s="52"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="103"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="73"/>
       <c r="D15" s="55" t="s">
         <v>128</v>
       </c>
@@ -2769,10 +2831,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18">
+    <row r="16" spans="1:9" ht="18.75">
       <c r="A16" s="52"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="103"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="73"/>
       <c r="D16" s="55" t="s">
         <v>131</v>
       </c>
@@ -2788,10 +2850,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18">
+    <row r="17" spans="1:9" ht="18.75">
       <c r="A17" s="52"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="103"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="73"/>
       <c r="D17" s="55" t="s">
         <v>129</v>
       </c>
@@ -2807,10 +2869,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18.600000000000001" thickBot="1">
+    <row r="18" spans="1:9" ht="19.5" thickBot="1">
       <c r="A18" s="52"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="104"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="74"/>
       <c r="D18" s="56" t="s">
         <v>130</v>
       </c>
@@ -2828,10 +2890,10 @@
     </row>
     <row r="19" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A19" s="52"/>
-      <c r="B19" s="96">
+      <c r="B19" s="84">
         <v>43712</v>
       </c>
-      <c r="C19" s="84" t="s">
+      <c r="C19" s="75" t="s">
         <v>92</v>
       </c>
       <c r="D19" s="48" t="s">
@@ -2849,10 +2911,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18.600000000000001" thickBot="1">
+    <row r="20" spans="1:9" ht="19.5" thickBot="1">
       <c r="A20" s="52"/>
-      <c r="B20" s="97"/>
-      <c r="C20" s="85"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="76"/>
       <c r="D20" s="50" t="s">
         <v>133</v>
       </c>
@@ -2868,10 +2930,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18.600000000000001" thickBot="1">
+    <row r="21" spans="1:9" ht="19.5" thickBot="1">
       <c r="A21" s="52"/>
-      <c r="B21" s="97"/>
-      <c r="C21" s="85"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="76"/>
       <c r="D21" s="50" t="s">
         <v>134</v>
       </c>
@@ -2887,10 +2949,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18.600000000000001" thickBot="1">
+    <row r="22" spans="1:9" ht="19.5" thickBot="1">
       <c r="A22" s="52"/>
-      <c r="B22" s="97"/>
-      <c r="C22" s="85"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="76"/>
       <c r="D22" s="50" t="s">
         <v>76</v>
       </c>
@@ -2906,10 +2968,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18.600000000000001" thickBot="1">
+    <row r="23" spans="1:9" ht="19.5" thickBot="1">
       <c r="A23" s="52"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="77"/>
       <c r="D23" s="51" t="s">
         <v>77</v>
       </c>
@@ -2925,12 +2987,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18">
+    <row r="24" spans="1:9" ht="18.75">
       <c r="A24" s="52"/>
-      <c r="B24" s="99" t="s">
+      <c r="B24" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="102" t="s">
+      <c r="C24" s="72" t="s">
         <v>103</v>
       </c>
       <c r="D24" s="53" t="s">
@@ -2948,10 +3010,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18">
+    <row r="25" spans="1:9" ht="18.75">
       <c r="A25" s="52"/>
-      <c r="B25" s="100"/>
-      <c r="C25" s="103"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="73"/>
       <c r="D25" s="55" t="s">
         <v>135</v>
       </c>
@@ -2967,10 +3029,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18">
+    <row r="26" spans="1:9" ht="18.75">
       <c r="A26" s="52"/>
-      <c r="B26" s="100"/>
-      <c r="C26" s="103"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="73"/>
       <c r="D26" s="55" t="s">
         <v>136</v>
       </c>
@@ -2986,10 +3048,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="18">
+    <row r="27" spans="1:9" ht="18.75">
       <c r="A27" s="52"/>
-      <c r="B27" s="100"/>
-      <c r="C27" s="103"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="73"/>
       <c r="D27" s="55" t="s">
         <v>100</v>
       </c>
@@ -3005,10 +3067,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="18">
+    <row r="28" spans="1:9" ht="18.75">
       <c r="A28" s="52"/>
-      <c r="B28" s="101"/>
-      <c r="C28" s="105"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="78"/>
       <c r="D28" s="57" t="s">
         <v>101</v>
       </c>
@@ -3024,12 +3086,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18">
+    <row r="29" spans="1:9" ht="18.75">
       <c r="A29" s="52"/>
-      <c r="B29" s="79" t="s">
+      <c r="B29" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="106">
+      <c r="C29" s="79">
         <v>43588</v>
       </c>
       <c r="D29" s="48" t="s">
@@ -3047,10 +3109,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18">
+    <row r="30" spans="1:9" ht="18.75">
       <c r="A30" s="52"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="85"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="76"/>
       <c r="D30" s="50" t="s">
         <v>138</v>
       </c>
@@ -3066,10 +3128,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="18">
+    <row r="31" spans="1:9" ht="18.75">
       <c r="A31" s="52"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="85"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="76"/>
       <c r="D31" s="50" t="s">
         <v>127</v>
       </c>
@@ -3085,10 +3147,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="18">
+    <row r="32" spans="1:9" ht="18.75">
       <c r="A32" s="52"/>
-      <c r="B32" s="80"/>
-      <c r="C32" s="85"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="76"/>
       <c r="D32" s="50" t="s">
         <v>140</v>
       </c>
@@ -3104,10 +3166,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="18">
+    <row r="33" spans="1:9" ht="18.75">
       <c r="A33" s="52"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="86"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="77"/>
       <c r="D33" s="51" t="s">
         <v>137</v>
       </c>
@@ -3123,12 +3185,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="18">
+    <row r="34" spans="1:9" ht="18.75">
       <c r="A34" s="52"/>
-      <c r="B34" s="99">
+      <c r="B34" s="87">
         <v>43588</v>
       </c>
-      <c r="C34" s="107">
+      <c r="C34" s="80">
         <v>43589</v>
       </c>
       <c r="D34" s="53" t="s">
@@ -3146,10 +3208,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="18">
+    <row r="35" spans="1:9" ht="18.75">
       <c r="A35" s="52"/>
-      <c r="B35" s="100"/>
-      <c r="C35" s="103"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="73"/>
       <c r="D35" s="55" t="s">
         <v>143</v>
       </c>
@@ -3165,10 +3227,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="18">
+    <row r="36" spans="1:9" ht="18.75">
       <c r="A36" s="52"/>
-      <c r="B36" s="100"/>
-      <c r="C36" s="103"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="73"/>
       <c r="D36" s="55" t="s">
         <v>139</v>
       </c>
@@ -3184,10 +3246,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="18">
+    <row r="37" spans="1:9" ht="18.75">
       <c r="A37" s="52"/>
-      <c r="B37" s="100"/>
-      <c r="C37" s="103"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="73"/>
       <c r="D37" s="55" t="s">
         <v>142</v>
       </c>
@@ -3203,10 +3265,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="18.600000000000001" thickBot="1">
+    <row r="38" spans="1:9" ht="19.5" thickBot="1">
       <c r="A38" s="52"/>
-      <c r="B38" s="101"/>
-      <c r="C38" s="105"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="78"/>
       <c r="D38" s="57" t="s">
         <v>141</v>
       </c>
@@ -3222,7 +3284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="18">
+    <row r="39" spans="1:9" ht="18.75">
       <c r="A39" s="52"/>
       <c r="B39" s="60"/>
       <c r="C39" s="60"/>
@@ -3233,7 +3295,7 @@
       <c r="H39" s="52"/>
       <c r="I39" s="58"/>
     </row>
-    <row r="40" spans="1:9" ht="18">
+    <row r="40" spans="1:9" ht="18.75">
       <c r="A40" s="52"/>
       <c r="B40" s="60"/>
       <c r="C40" s="60"/>
@@ -3244,7 +3306,7 @@
       <c r="H40" s="52"/>
       <c r="I40" s="58"/>
     </row>
-    <row r="41" spans="1:9" ht="18">
+    <row r="41" spans="1:9" ht="18.75">
       <c r="A41" s="52"/>
       <c r="B41" s="60"/>
       <c r="C41" s="60"/>
@@ -3255,7 +3317,7 @@
       <c r="H41" s="52"/>
       <c r="I41" s="58"/>
     </row>
-    <row r="42" spans="1:9" ht="18">
+    <row r="42" spans="1:9" ht="18.75">
       <c r="A42" s="52"/>
       <c r="B42" s="60"/>
       <c r="C42" s="60"/>
@@ -3266,7 +3328,7 @@
       <c r="H42" s="52"/>
       <c r="I42" s="58"/>
     </row>
-    <row r="43" spans="1:9" ht="18">
+    <row r="43" spans="1:9" ht="18.75">
       <c r="A43" s="52"/>
       <c r="B43" s="60"/>
       <c r="C43" s="60"/>
@@ -3277,7 +3339,7 @@
       <c r="H43" s="52"/>
       <c r="I43" s="58"/>
     </row>
-    <row r="44" spans="1:9" ht="18">
+    <row r="44" spans="1:9" ht="18.75">
       <c r="A44" s="52"/>
       <c r="B44" s="60"/>
       <c r="C44" s="60"/>
@@ -3288,7 +3350,7 @@
       <c r="H44" s="52"/>
       <c r="I44" s="58"/>
     </row>
-    <row r="45" spans="1:9" ht="18">
+    <row r="45" spans="1:9" ht="18.75">
       <c r="A45" s="52"/>
       <c r="B45" s="60"/>
       <c r="C45" s="60"/>
@@ -3299,7 +3361,7 @@
       <c r="H45" s="52"/>
       <c r="I45" s="58"/>
     </row>
-    <row r="46" spans="1:9" ht="18">
+    <row r="46" spans="1:9" ht="18.75">
       <c r="A46" s="52"/>
       <c r="B46" s="60"/>
       <c r="C46" s="60"/>
@@ -3310,7 +3372,7 @@
       <c r="H46" s="52"/>
       <c r="I46" s="58"/>
     </row>
-    <row r="47" spans="1:9" ht="18">
+    <row r="47" spans="1:9" ht="18.75">
       <c r="A47" s="52"/>
       <c r="B47" s="60"/>
       <c r="C47" s="60"/>
@@ -3321,7 +3383,7 @@
       <c r="H47" s="52"/>
       <c r="I47" s="58"/>
     </row>
-    <row r="48" spans="1:9" ht="18">
+    <row r="48" spans="1:9" ht="18.75">
       <c r="A48" s="52"/>
       <c r="B48" s="60"/>
       <c r="C48" s="60"/>
@@ -3332,7 +3394,7 @@
       <c r="H48" s="52"/>
       <c r="I48" s="58"/>
     </row>
-    <row r="49" spans="1:9" ht="18">
+    <row r="49" spans="1:9" ht="18.75">
       <c r="A49" s="52"/>
       <c r="B49" s="60"/>
       <c r="C49" s="60"/>
@@ -3343,7 +3405,7 @@
       <c r="H49" s="52"/>
       <c r="I49" s="58"/>
     </row>
-    <row r="50" spans="1:9" ht="18">
+    <row r="50" spans="1:9" ht="18.75">
       <c r="A50" s="52"/>
       <c r="B50" s="60"/>
       <c r="C50" s="60"/>
@@ -3354,7 +3416,7 @@
       <c r="H50" s="52"/>
       <c r="I50" s="58"/>
     </row>
-    <row r="51" spans="1:9" ht="18">
+    <row r="51" spans="1:9" ht="18.75">
       <c r="D51" s="52"/>
       <c r="E51" s="52"/>
       <c r="F51" s="52"/>
@@ -3362,7 +3424,7 @@
       <c r="H51" s="52"/>
       <c r="I51" s="58"/>
     </row>
-    <row r="52" spans="1:9" ht="18">
+    <row r="52" spans="1:9" ht="18.75">
       <c r="D52" s="52"/>
       <c r="E52" s="52"/>
       <c r="F52" s="52"/>
@@ -3372,16 +3434,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B34:B38"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="F7:H7"/>
@@ -3392,6 +3444,16 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C34:C38"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3402,22 +3464,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AA2E22-B916-4D99-A156-90D9CC0DC7BC}">
   <dimension ref="B2:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="18">
+    <row r="2" spans="2:8" ht="37.5">
       <c r="B2" s="108" t="s">
         <v>149</v>
       </c>
@@ -3440,351 +3502,383 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="2:8" ht="30">
+      <c r="B3" s="109" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="109" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="109" t="s">
         <v>173</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15" t="s">
+      <c r="E3" s="109"/>
+      <c r="F3" s="109" t="s">
+        <v>191</v>
+      </c>
+      <c r="G3" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="109" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="2:8" ht="30">
+      <c r="B4" s="109" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="109" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="109" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15" t="s">
+      <c r="E4" s="109"/>
+      <c r="F4" s="109" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="109" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15" t="s">
+    <row r="5" spans="2:8" ht="30">
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109" t="s">
         <v>154</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15" t="s">
+      <c r="E5" s="109"/>
+      <c r="F5" s="109" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="109" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15" t="s">
+    <row r="6" spans="2:8" ht="30">
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109" t="s">
         <v>156</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="109" t="s">
         <v>184</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15" t="s">
+      <c r="F6" s="109" t="s">
+        <v>192</v>
+      </c>
+      <c r="G6" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="109" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="15"/>
-      <c r="C7" s="15" t="s">
+    <row r="7" spans="2:8" ht="30">
+      <c r="B7" s="109"/>
+      <c r="C7" s="109" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="109" t="s">
         <v>156</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="109" t="s">
         <v>184</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15" t="s">
+      <c r="F7" s="109" t="s">
+        <v>192</v>
+      </c>
+      <c r="G7" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="109" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15" t="s">
+    <row r="8" spans="2:8" ht="30">
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109" t="s">
         <v>160</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="109" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15" t="s">
+      <c r="F8" s="109"/>
+      <c r="G8" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="109" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="15"/>
-      <c r="C9" s="15" t="s">
+    <row r="9" spans="2:8" ht="30">
+      <c r="B9" s="109"/>
+      <c r="C9" s="109" t="s">
         <v>158</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="109" t="s">
         <v>160</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="109" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15" t="s">
+      <c r="F9" s="109"/>
+      <c r="G9" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="109" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15" t="s">
+    <row r="10" spans="2:8" ht="30">
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109" t="s">
         <v>159</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="109" t="s">
         <v>163</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15" t="s">
+      <c r="F10" s="109" t="s">
+        <v>192</v>
+      </c>
+      <c r="G10" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="109" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15" t="s">
+    <row r="11" spans="2:8" ht="30">
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109" t="s">
         <v>176</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="109" t="s">
         <v>177</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15" t="s">
+      <c r="F11" s="109" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="109" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="15"/>
-      <c r="C12" s="15" t="s">
+    <row r="12" spans="2:8" ht="30">
+      <c r="B12" s="109"/>
+      <c r="C12" s="109" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="109" t="s">
         <v>165</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="109" t="s">
         <v>166</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15" t="s">
+      <c r="F12" s="109" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="109" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15" t="s">
+    <row r="13" spans="2:8" ht="30">
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109" t="s">
         <v>167</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="109" t="s">
         <v>168</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15" t="s">
+      <c r="F13" s="109" t="s">
+        <v>194</v>
+      </c>
+      <c r="G13" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="109" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15" t="s">
+    <row r="14" spans="2:8" ht="30">
+      <c r="B14" s="109"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109" t="s">
         <v>169</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15" t="s">
+      <c r="E14" s="109" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="109" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="109" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="15" t="s">
+    <row r="15" spans="2:8" ht="30">
+      <c r="B15" s="109" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="109" t="s">
         <v>175</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="109" t="s">
         <v>178</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="109" t="s">
         <v>179</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15" t="s">
+      <c r="F15" s="109" t="s">
+        <v>193</v>
+      </c>
+      <c r="G15" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="109" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15" t="s">
+    <row r="16" spans="2:8" ht="30">
+      <c r="B16" s="109"/>
+      <c r="C16" s="109" t="s">
         <v>180</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="109" t="s">
         <v>153</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="109" t="s">
         <v>181</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15" t="s">
+      <c r="F16" s="109" t="s">
+        <v>191</v>
+      </c>
+      <c r="G16" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="109" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15" t="s">
+    <row r="17" spans="2:8" ht="30">
+      <c r="B17" s="109"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109" t="s">
         <v>182</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="109" t="s">
         <v>183</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15" t="s">
+      <c r="F17" s="109" t="s">
+        <v>196</v>
+      </c>
+      <c r="G17" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="109" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15" t="s">
+    <row r="18" spans="2:8" ht="30">
+      <c r="B18" s="109"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109" t="s">
         <v>185</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="109" t="s">
         <v>186</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15" t="s">
+      <c r="F18" s="109" t="s">
+        <v>196</v>
+      </c>
+      <c r="G18" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="109" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="15"/>
-      <c r="C19" s="15" t="s">
+    <row r="19" spans="2:8" ht="30">
+      <c r="B19" s="109"/>
+      <c r="C19" s="109" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="109" t="s">
         <v>187</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="109" t="s">
         <v>188</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15" t="s">
+      <c r="F19" s="109" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="109" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15" t="s">
+    <row r="20" spans="2:8" ht="30">
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109" t="s">
         <v>189</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="109" t="s">
         <v>190</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15" t="s">
+      <c r="F20" s="110" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="109" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="15"/>
-      <c r="C21" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>171</v>
-      </c>
+      <c r="B21" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109" t="s">
+        <v>197</v>
+      </c>
+      <c r="G21" s="109"/>
+      <c r="H21" s="109"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="15"/>
+      <c r="B22" s="111" t="s">
+        <v>199</v>
+      </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="F22" s="111" t="s">
+        <v>194</v>
+      </c>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
     </row>

--- a/N65_HappyLunch.xlsx
+++ b/N65_HappyLunch.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AndroidStudioProjects\Happy_Lunch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6F9F58-81CB-41F1-B664-D98B37AAD36D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A4FEF5-C945-4BEC-8E26-3DE6EAEFEC7A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="UAT" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="280">
   <si>
     <t>NHÓM 65: HAPPY LUNCH</t>
   </si>
@@ -624,6 +625,246 @@
   </si>
   <si>
     <t>Linear Layout</t>
+  </si>
+  <si>
+    <t>UAT NHÓM 65 - TỰ TEST</t>
+  </si>
+  <si>
+    <t>Tên Test case</t>
+  </si>
+  <si>
+    <t>Các bước thực hiện</t>
+  </si>
+  <si>
+    <t>Kết quả mong đợi</t>
+  </si>
+  <si>
+    <t>Kết quả thực tế</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Góp ý</t>
+  </si>
+  <si>
+    <t>Nhóm thực hiện test</t>
+  </si>
+  <si>
+    <t>Nhóm code đồng ý chỉnh sửa (có/không)</t>
+  </si>
+  <si>
+    <t>Đăng nhập</t>
+  </si>
+  <si>
+    <t>Nhập tên đăng nhập, nhập mật khẩu, chọn loại đăng nhập, nhấn đăng nhập</t>
+  </si>
+  <si>
+    <t>Đăng nhập thành công</t>
+  </si>
+  <si>
+    <t>Đạt</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Đăng nhập sai tên đăng nhập</t>
+  </si>
+  <si>
+    <t>Nhập tên đăng nhập không đúng, nhập mật khẩu, chọn loại đăng nhập, nhấn đăng nhập</t>
+  </si>
+  <si>
+    <t>Báo lỗi đăng nhập thất bại</t>
+  </si>
+  <si>
+    <t>Đăng nhập sai mật khẩu</t>
+  </si>
+  <si>
+    <t>Nhập tên đăng nhập đúng, nhập mật khẩu không đúng, chọn loại đăng nhập, nhấn đăng nhập</t>
+  </si>
+  <si>
+    <t>Đăng ký</t>
+  </si>
+  <si>
+    <t>Nhập email, mật khẩu, và vào email đó xác nhận để tạo tài khoản</t>
+  </si>
+  <si>
+    <t>Tạo tài khoản thành công</t>
+  </si>
+  <si>
+    <t>Giao diện Customer</t>
+  </si>
+  <si>
+    <t>Tìm kiếm món ăn</t>
+  </si>
+  <si>
+    <t>Nhập món ăn cần tìm vào thanh tìm kiếm, sau đó hiển thị danh sách tìm được</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách tìm được</t>
+  </si>
+  <si>
+    <t>Chưa đạt</t>
+  </si>
+  <si>
+    <t>Dù có hiển thị danh sách nhưng không quét hết</t>
+  </si>
+  <si>
+    <t>Cần hoàn thiện lại đủ món ăn</t>
+  </si>
+  <si>
+    <t>Sẽ chỉnh sửa</t>
+  </si>
+  <si>
+    <t>Thông báo nhắc nhở món ăn cần phải lấy</t>
+  </si>
+  <si>
+    <t>Khi đến thời gian lấy món ăn sẽ hiển thị thông báo</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo đúng thời gian</t>
+  </si>
+  <si>
+    <t>Chưa test</t>
+  </si>
+  <si>
+    <t>Do có sự chỉnh sửa database nên chưa test được</t>
+  </si>
+  <si>
+    <t>Sẽ test sau</t>
+  </si>
+  <si>
+    <t>Đặt món</t>
+  </si>
+  <si>
+    <t>Chọn món ăn và đặt món</t>
+  </si>
+  <si>
+    <t>Món được đưa vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>Món ăn được đặt ngay sau khi chọn, không được đưa vào giỏ hàng để khách hàng xác nhận lại lần cuối</t>
+  </si>
+  <si>
+    <t>Cần cho customer chọn hết món ăn vào giỏ hàng rồi mới xác nhận</t>
+  </si>
+  <si>
+    <t>Sẽ chỉnh sửa lại giao diện</t>
+  </si>
+  <si>
+    <t>Hủy món</t>
+  </si>
+  <si>
+    <t>Chọn món ăn và hủy món</t>
+  </si>
+  <si>
+    <t>Hủy thành công</t>
+  </si>
+  <si>
+    <t>Hủy món không được, bị đưa vào second shop</t>
+  </si>
+  <si>
+    <t>Hủy món chữ bị chồng chaatsleen nhau</t>
+  </si>
+  <si>
+    <t>Sẽ chỉnh sửa lỗi chữ bị đè lên nhau</t>
+  </si>
+  <si>
+    <t>Sau khi đưa vào second shop giá giảm 10% và 10% đó customer chịu</t>
+  </si>
+  <si>
+    <t>Nhượng lịa thành công</t>
+  </si>
+  <si>
+    <t>Kiểm tra tài khoản customer</t>
+  </si>
+  <si>
+    <t>Vào tab Account và nhấn kiểm tra tài khoản</t>
+  </si>
+  <si>
+    <t>Hiển thị các thông tin về tài khoản</t>
+  </si>
+  <si>
+    <t>Cài đặt tài khoản customer</t>
+  </si>
+  <si>
+    <t>Vào tab Account và nhấn cài đặt tài khoản</t>
+  </si>
+  <si>
+    <t>Hiệu chỉnh thành công các thông tin về tài khoản</t>
+  </si>
+  <si>
+    <t>Vào tab Account và nhấn kiểm tra hóa đơn</t>
+  </si>
+  <si>
+    <t>Hiển thị tất cả hóa đơn đã đặt</t>
+  </si>
+  <si>
+    <t>Hiển thị một giao diện trắng</t>
+  </si>
+  <si>
+    <t>Cần điều hướng đến đúng chỗ</t>
+  </si>
+  <si>
+    <t>Đăng xuất</t>
+  </si>
+  <si>
+    <t>Vào tab Account và nhấn Đăng xuất</t>
+  </si>
+  <si>
+    <t>Đăng xuất và điều hướng ra màn hình đăng nhập</t>
+  </si>
+  <si>
+    <t>Giao diện Employee</t>
+  </si>
+  <si>
+    <t>Nhận món ăn</t>
+  </si>
+  <si>
+    <t>Vào giao diện ordered, nhận món ăn</t>
+  </si>
+  <si>
+    <t>Nhận món ăn thành công</t>
+  </si>
+  <si>
+    <t>Thêm món mới</t>
+  </si>
+  <si>
+    <t>Vào giao diện Shop, nhấn vào button hình dấu cộng và chọn món</t>
+  </si>
+  <si>
+    <t>Thêm món thành công, hiển thị trên giao diện của Customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cập nhật tiền cho Customers </t>
+  </si>
+  <si>
+    <t>Vào tab Customers, tìm MSSV, nhập số tiền và chọn Customer</t>
+  </si>
+  <si>
+    <t>Tiền được cộng vào tài khoản</t>
+  </si>
+  <si>
+    <t>Cập nhật tiền cho Customers - nhập sai số tiền</t>
+  </si>
+  <si>
+    <t>Vào tab Customers, tìm MSSV, không nhập số tiền và chọn Customer</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa lại hiện thông báo báo lỗi</t>
+  </si>
+  <si>
+    <t>Cần chỉnh sủa lại</t>
+  </si>
+  <si>
+    <t>Vào tab Profile và nhấn kiểm tra hóa đơn</t>
+  </si>
+  <si>
+    <t>Hiển thị hóa đơn đã nhận</t>
+  </si>
+  <si>
+    <t>Vào tab Profile và nhấn Đăng xuất</t>
   </si>
 </sst>
 </file>
@@ -633,7 +874,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -656,11 +897,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -668,7 +916,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -676,14 +924,14 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -691,7 +939,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -699,7 +947,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -707,20 +955,20 @@
       <sz val="14"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -769,8 +1017,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -789,8 +1052,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1208,115 +1477,153 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="12" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="13" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="13" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1325,144 +1632,175 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="16" fontId="12" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="16" fontId="12" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="13" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="16" fontId="12" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="16" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="13" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="13" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
@@ -1758,22 +2096,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="26.25">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
     </row>
     <row r="5" spans="2:8" ht="21">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
     </row>
     <row r="7" spans="2:8" ht="21">
       <c r="B7" s="2" t="s">
@@ -1969,37 +2307,37 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="26.25">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
     </row>
     <row r="5" spans="2:8" ht="21">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
     </row>
     <row r="9" spans="2:8" ht="21">
       <c r="B9" s="63" t="s">
@@ -2632,56 +2970,56 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="26.25">
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
     </row>
     <row r="5" spans="1:9" ht="21">
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
     </row>
     <row r="7" spans="1:9" ht="18.75">
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="102" t="s">
+      <c r="D7" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="104" t="s">
+      <c r="E7" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="95" t="s">
+      <c r="F7" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="96"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="106" t="s">
+      <c r="G7" s="79"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="95" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75">
-      <c r="B8" s="99"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="105"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="94"/>
       <c r="F8" s="46" t="s">
         <v>60</v>
       </c>
@@ -2691,13 +3029,13 @@
       <c r="H8" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="107"/>
+      <c r="I8" s="96"/>
     </row>
     <row r="9" spans="1:9" ht="18.75">
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="88" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="48" t="s">
@@ -2716,8 +3054,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.75">
-      <c r="B10" s="91"/>
-      <c r="C10" s="76"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="89"/>
       <c r="D10" s="50" t="s">
         <v>65</v>
       </c>
@@ -2736,8 +3074,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="18.75">
-      <c r="B11" s="91"/>
-      <c r="C11" s="76"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="89"/>
       <c r="D11" s="50" t="s">
         <v>68</v>
       </c>
@@ -2754,8 +3092,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.75">
-      <c r="B12" s="91"/>
-      <c r="C12" s="76"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="89"/>
       <c r="D12" s="50" t="s">
         <v>70</v>
       </c>
@@ -2772,8 +3110,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="19.5" thickBot="1">
-      <c r="B13" s="92"/>
-      <c r="C13" s="77"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="90"/>
       <c r="D13" s="51" t="s">
         <v>71</v>
       </c>
@@ -2791,10 +3129,10 @@
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1">
       <c r="A14" s="52"/>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="97" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="106" t="s">
         <v>93</v>
       </c>
       <c r="D14" s="53" t="s">
@@ -2814,8 +3152,8 @@
     </row>
     <row r="15" spans="1:9" ht="18.75">
       <c r="A15" s="52"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="73"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="107"/>
       <c r="D15" s="55" t="s">
         <v>128</v>
       </c>
@@ -2833,8 +3171,8 @@
     </row>
     <row r="16" spans="1:9" ht="18.75">
       <c r="A16" s="52"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="73"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="107"/>
       <c r="D16" s="55" t="s">
         <v>131</v>
       </c>
@@ -2852,8 +3190,8 @@
     </row>
     <row r="17" spans="1:9" ht="18.75">
       <c r="A17" s="52"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="73"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="107"/>
       <c r="D17" s="55" t="s">
         <v>129</v>
       </c>
@@ -2871,8 +3209,8 @@
     </row>
     <row r="18" spans="1:9" ht="19.5" thickBot="1">
       <c r="A18" s="52"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="74"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="108"/>
       <c r="D18" s="56" t="s">
         <v>130</v>
       </c>
@@ -2890,10 +3228,10 @@
     </row>
     <row r="19" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A19" s="52"/>
-      <c r="B19" s="84">
+      <c r="B19" s="100">
         <v>43712</v>
       </c>
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="88" t="s">
         <v>92</v>
       </c>
       <c r="D19" s="48" t="s">
@@ -2913,8 +3251,8 @@
     </row>
     <row r="20" spans="1:9" ht="19.5" thickBot="1">
       <c r="A20" s="52"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="76"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="89"/>
       <c r="D20" s="50" t="s">
         <v>133</v>
       </c>
@@ -2932,8 +3270,8 @@
     </row>
     <row r="21" spans="1:9" ht="19.5" thickBot="1">
       <c r="A21" s="52"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="76"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="89"/>
       <c r="D21" s="50" t="s">
         <v>134</v>
       </c>
@@ -2951,8 +3289,8 @@
     </row>
     <row r="22" spans="1:9" ht="19.5" thickBot="1">
       <c r="A22" s="52"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="76"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="89"/>
       <c r="D22" s="50" t="s">
         <v>76</v>
       </c>
@@ -2970,8 +3308,8 @@
     </row>
     <row r="23" spans="1:9" ht="19.5" thickBot="1">
       <c r="A23" s="52"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="77"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="90"/>
       <c r="D23" s="51" t="s">
         <v>77</v>
       </c>
@@ -2989,10 +3327,10 @@
     </row>
     <row r="24" spans="1:9" ht="18.75">
       <c r="A24" s="52"/>
-      <c r="B24" s="87" t="s">
+      <c r="B24" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="106" t="s">
         <v>103</v>
       </c>
       <c r="D24" s="53" t="s">
@@ -3012,8 +3350,8 @@
     </row>
     <row r="25" spans="1:9" ht="18.75">
       <c r="A25" s="52"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="73"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="107"/>
       <c r="D25" s="55" t="s">
         <v>135</v>
       </c>
@@ -3031,8 +3369,8 @@
     </row>
     <row r="26" spans="1:9" ht="18.75">
       <c r="A26" s="52"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="73"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="107"/>
       <c r="D26" s="55" t="s">
         <v>136</v>
       </c>
@@ -3050,8 +3388,8 @@
     </row>
     <row r="27" spans="1:9" ht="18.75">
       <c r="A27" s="52"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="73"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="107"/>
       <c r="D27" s="55" t="s">
         <v>100</v>
       </c>
@@ -3069,8 +3407,8 @@
     </row>
     <row r="28" spans="1:9" ht="18.75">
       <c r="A28" s="52"/>
-      <c r="B28" s="89"/>
-      <c r="C28" s="78"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="109"/>
       <c r="D28" s="57" t="s">
         <v>101</v>
       </c>
@@ -3088,10 +3426,10 @@
     </row>
     <row r="29" spans="1:9" ht="18.75">
       <c r="A29" s="52"/>
-      <c r="B29" s="90" t="s">
+      <c r="B29" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="79">
+      <c r="C29" s="110">
         <v>43588</v>
       </c>
       <c r="D29" s="48" t="s">
@@ -3111,8 +3449,8 @@
     </row>
     <row r="30" spans="1:9" ht="18.75">
       <c r="A30" s="52"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="76"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="89"/>
       <c r="D30" s="50" t="s">
         <v>138</v>
       </c>
@@ -3130,8 +3468,8 @@
     </row>
     <row r="31" spans="1:9" ht="18.75">
       <c r="A31" s="52"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="76"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="89"/>
       <c r="D31" s="50" t="s">
         <v>127</v>
       </c>
@@ -3149,8 +3487,8 @@
     </row>
     <row r="32" spans="1:9" ht="18.75">
       <c r="A32" s="52"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="76"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="89"/>
       <c r="D32" s="50" t="s">
         <v>140</v>
       </c>
@@ -3168,8 +3506,8 @@
     </row>
     <row r="33" spans="1:9" ht="18.75">
       <c r="A33" s="52"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="77"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="90"/>
       <c r="D33" s="51" t="s">
         <v>137</v>
       </c>
@@ -3187,10 +3525,10 @@
     </row>
     <row r="34" spans="1:9" ht="18.75">
       <c r="A34" s="52"/>
-      <c r="B34" s="87">
+      <c r="B34" s="103">
         <v>43588</v>
       </c>
-      <c r="C34" s="80">
+      <c r="C34" s="111">
         <v>43589</v>
       </c>
       <c r="D34" s="53" t="s">
@@ -3210,8 +3548,8 @@
     </row>
     <row r="35" spans="1:9" ht="18.75">
       <c r="A35" s="52"/>
-      <c r="B35" s="88"/>
-      <c r="C35" s="73"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="107"/>
       <c r="D35" s="55" t="s">
         <v>143</v>
       </c>
@@ -3229,8 +3567,8 @@
     </row>
     <row r="36" spans="1:9" ht="18.75">
       <c r="A36" s="52"/>
-      <c r="B36" s="88"/>
-      <c r="C36" s="73"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="107"/>
       <c r="D36" s="55" t="s">
         <v>139</v>
       </c>
@@ -3248,8 +3586,8 @@
     </row>
     <row r="37" spans="1:9" ht="18.75">
       <c r="A37" s="52"/>
-      <c r="B37" s="88"/>
-      <c r="C37" s="73"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="107"/>
       <c r="D37" s="55" t="s">
         <v>142</v>
       </c>
@@ -3267,8 +3605,8 @@
     </row>
     <row r="38" spans="1:9" ht="19.5" thickBot="1">
       <c r="A38" s="52"/>
-      <c r="B38" s="89"/>
-      <c r="C38" s="78"/>
+      <c r="B38" s="105"/>
+      <c r="C38" s="109"/>
       <c r="D38" s="57" t="s">
         <v>141</v>
       </c>
@@ -3434,6 +3772,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B38"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="F7:H7"/>
@@ -3444,16 +3792,6 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="C34:C38"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3464,7 +3802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AA2E22-B916-4D99-A156-90D9CC0DC7BC}">
   <dimension ref="B2:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -3480,403 +3818,403 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="37.5">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="F2" s="108" t="s">
+      <c r="F2" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="108" t="s">
+      <c r="G2" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="H2" s="108" t="s">
+      <c r="H2" s="66" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="30">
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="109" t="s">
+      <c r="D3" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="G3" s="109" t="s">
+      <c r="G3" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="H3" s="109" t="s">
+      <c r="H3" s="67" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="30">
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109" t="s">
+      <c r="E4" s="67"/>
+      <c r="F4" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="G4" s="109" t="s">
+      <c r="G4" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="H4" s="109" t="s">
+      <c r="H4" s="67" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="30">
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109" t="s">
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109" t="s">
+      <c r="E5" s="67"/>
+      <c r="F5" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="G5" s="109" t="s">
+      <c r="G5" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="H5" s="109" t="s">
+      <c r="H5" s="67" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30">
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109" t="s">
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="E6" s="109" t="s">
+      <c r="E6" s="67" t="s">
         <v>184</v>
       </c>
-      <c r="F6" s="109" t="s">
+      <c r="F6" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="G6" s="109" t="s">
+      <c r="G6" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="H6" s="109" t="s">
+      <c r="H6" s="67" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="30">
-      <c r="B7" s="109"/>
-      <c r="C7" s="109" t="s">
+      <c r="B7" s="67"/>
+      <c r="C7" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="109" t="s">
+      <c r="D7" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="E7" s="109" t="s">
+      <c r="E7" s="67" t="s">
         <v>184</v>
       </c>
-      <c r="F7" s="109" t="s">
+      <c r="F7" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="G7" s="109" t="s">
+      <c r="G7" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="H7" s="109" t="s">
+      <c r="H7" s="67" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="30">
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109" t="s">
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="E8" s="109" t="s">
+      <c r="E8" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109" t="s">
+      <c r="F8" s="67"/>
+      <c r="G8" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="H8" s="109" t="s">
+      <c r="H8" s="67" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="30">
-      <c r="B9" s="109"/>
-      <c r="C9" s="109" t="s">
+      <c r="B9" s="67"/>
+      <c r="C9" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="E9" s="109" t="s">
+      <c r="E9" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109" t="s">
+      <c r="F9" s="67"/>
+      <c r="G9" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="H9" s="109" t="s">
+      <c r="H9" s="67" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="30">
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109" t="s">
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="E10" s="109" t="s">
+      <c r="E10" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="F10" s="109" t="s">
+      <c r="F10" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="G10" s="109" t="s">
+      <c r="G10" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="H10" s="109" t="s">
+      <c r="H10" s="67" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="30">
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109" t="s">
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67" t="s">
         <v>176</v>
       </c>
-      <c r="E11" s="109" t="s">
+      <c r="E11" s="67" t="s">
         <v>177</v>
       </c>
-      <c r="F11" s="109" t="s">
+      <c r="F11" s="67" t="s">
         <v>193</v>
       </c>
-      <c r="G11" s="109" t="s">
+      <c r="G11" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="H11" s="109" t="s">
+      <c r="H11" s="67" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="30">
-      <c r="B12" s="109"/>
-      <c r="C12" s="109" t="s">
+      <c r="B12" s="67"/>
+      <c r="C12" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="109" t="s">
+      <c r="D12" s="67" t="s">
         <v>165</v>
       </c>
-      <c r="E12" s="109" t="s">
+      <c r="E12" s="67" t="s">
         <v>166</v>
       </c>
-      <c r="F12" s="109" t="s">
+      <c r="F12" s="67" t="s">
         <v>194</v>
       </c>
-      <c r="G12" s="109" t="s">
+      <c r="G12" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="H12" s="109" t="s">
+      <c r="H12" s="67" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="30">
-      <c r="B13" s="109"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109" t="s">
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="E13" s="109" t="s">
+      <c r="E13" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="F13" s="109" t="s">
+      <c r="F13" s="67" t="s">
         <v>194</v>
       </c>
-      <c r="G13" s="109" t="s">
+      <c r="G13" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="H13" s="109" t="s">
+      <c r="H13" s="67" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="30">
-      <c r="B14" s="109"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109" t="s">
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67" t="s">
         <v>169</v>
       </c>
-      <c r="E14" s="109" t="s">
+      <c r="E14" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="F14" s="109" t="s">
+      <c r="F14" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="G14" s="109" t="s">
+      <c r="G14" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="H14" s="109" t="s">
+      <c r="H14" s="67" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="30">
-      <c r="B15" s="109" t="s">
+      <c r="B15" s="67" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="109" t="s">
+      <c r="C15" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="D15" s="109" t="s">
+      <c r="D15" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="E15" s="109" t="s">
+      <c r="E15" s="67" t="s">
         <v>179</v>
       </c>
-      <c r="F15" s="109" t="s">
+      <c r="F15" s="67" t="s">
         <v>193</v>
       </c>
-      <c r="G15" s="109" t="s">
+      <c r="G15" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="H15" s="109" t="s">
+      <c r="H15" s="67" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="30">
-      <c r="B16" s="109"/>
-      <c r="C16" s="109" t="s">
+      <c r="B16" s="67"/>
+      <c r="C16" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="D16" s="109" t="s">
+      <c r="D16" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="E16" s="109" t="s">
+      <c r="E16" s="67" t="s">
         <v>181</v>
       </c>
-      <c r="F16" s="109" t="s">
+      <c r="F16" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="G16" s="109" t="s">
+      <c r="G16" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="H16" s="109" t="s">
+      <c r="H16" s="67" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="30">
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109" t="s">
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="E17" s="109" t="s">
+      <c r="E17" s="67" t="s">
         <v>183</v>
       </c>
-      <c r="F17" s="109" t="s">
+      <c r="F17" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="G17" s="109" t="s">
+      <c r="G17" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="H17" s="109" t="s">
+      <c r="H17" s="67" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="30">
-      <c r="B18" s="109"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109" t="s">
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="E18" s="109" t="s">
+      <c r="E18" s="67" t="s">
         <v>186</v>
       </c>
-      <c r="F18" s="109" t="s">
+      <c r="F18" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="G18" s="109" t="s">
+      <c r="G18" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="H18" s="109" t="s">
+      <c r="H18" s="67" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="30">
-      <c r="B19" s="109"/>
-      <c r="C19" s="109" t="s">
+      <c r="B19" s="67"/>
+      <c r="C19" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="109" t="s">
+      <c r="D19" s="67" t="s">
         <v>187</v>
       </c>
-      <c r="E19" s="109" t="s">
+      <c r="E19" s="67" t="s">
         <v>188</v>
       </c>
-      <c r="F19" s="109" t="s">
+      <c r="F19" s="67" t="s">
         <v>197</v>
       </c>
-      <c r="G19" s="109" t="s">
+      <c r="G19" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="H19" s="109" t="s">
+      <c r="H19" s="67" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="30">
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109" t="s">
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67" t="s">
         <v>189</v>
       </c>
-      <c r="E20" s="109" t="s">
+      <c r="E20" s="67" t="s">
         <v>190</v>
       </c>
-      <c r="F20" s="110" t="s">
+      <c r="F20" s="68" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="109" t="s">
+      <c r="G20" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="H20" s="109" t="s">
+      <c r="H20" s="67" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="109" t="s">
+      <c r="B21" s="67" t="s">
         <v>198</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="109" t="s">
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67" t="s">
         <v>197</v>
       </c>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="111" t="s">
+      <c r="B22" s="69" t="s">
         <v>199</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
-      <c r="F22" s="111" t="s">
+      <c r="F22" s="69" t="s">
         <v>194</v>
       </c>
       <c r="G22" s="15"/>
@@ -3940,4 +4278,682 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D019D39A-9CB3-4158-86EE-4287843CABA9}">
+  <dimension ref="B1:J25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="28.5">
+      <c r="B1" s="112" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+    </row>
+    <row r="3" spans="2:10" ht="45">
+      <c r="B3" s="113" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="114" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="114" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" s="114" t="s">
+        <v>203</v>
+      </c>
+      <c r="F3" s="114" t="s">
+        <v>204</v>
+      </c>
+      <c r="G3" s="114" t="s">
+        <v>205</v>
+      </c>
+      <c r="H3" s="114" t="s">
+        <v>206</v>
+      </c>
+      <c r="I3" s="115" t="s">
+        <v>207</v>
+      </c>
+      <c r="J3" s="114" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="30">
+      <c r="B4" s="113">
+        <v>1</v>
+      </c>
+      <c r="C4" s="116" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="116" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" s="116" t="s">
+        <v>211</v>
+      </c>
+      <c r="F4" s="116" t="s">
+        <v>212</v>
+      </c>
+      <c r="G4" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="116">
+        <v>65</v>
+      </c>
+      <c r="J4" s="116" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="30">
+      <c r="B5" s="113">
+        <v>2</v>
+      </c>
+      <c r="C5" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="116" t="s">
+        <v>215</v>
+      </c>
+      <c r="E5" s="116" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" s="116" t="s">
+        <v>212</v>
+      </c>
+      <c r="G5" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="116">
+        <v>65</v>
+      </c>
+      <c r="J5" s="116" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="45">
+      <c r="B6" s="113">
+        <v>3</v>
+      </c>
+      <c r="C6" s="116" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="116" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" s="116" t="s">
+        <v>216</v>
+      </c>
+      <c r="F6" s="116" t="s">
+        <v>212</v>
+      </c>
+      <c r="G6" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="116">
+        <v>65</v>
+      </c>
+      <c r="J6" s="116" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="30">
+      <c r="B7" s="113">
+        <v>4</v>
+      </c>
+      <c r="C7" s="116" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="116" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" s="116" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7" s="116" t="s">
+        <v>212</v>
+      </c>
+      <c r="G7" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="116">
+        <v>65</v>
+      </c>
+      <c r="J7" s="116" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="113"/>
+      <c r="C8" s="117" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="118"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="121"/>
+    </row>
+    <row r="9" spans="2:10" ht="60">
+      <c r="B9" s="113">
+        <v>5</v>
+      </c>
+      <c r="C9" s="116" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="116" t="s">
+        <v>224</v>
+      </c>
+      <c r="E9" s="116" t="s">
+        <v>225</v>
+      </c>
+      <c r="F9" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="G9" s="116" t="s">
+        <v>227</v>
+      </c>
+      <c r="H9" s="116" t="s">
+        <v>228</v>
+      </c>
+      <c r="I9" s="116">
+        <v>65</v>
+      </c>
+      <c r="J9" s="116" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="60">
+      <c r="B10" s="113">
+        <v>6</v>
+      </c>
+      <c r="C10" s="116" t="s">
+        <v>230</v>
+      </c>
+      <c r="D10" s="116" t="s">
+        <v>231</v>
+      </c>
+      <c r="E10" s="116" t="s">
+        <v>232</v>
+      </c>
+      <c r="F10" s="116" t="s">
+        <v>233</v>
+      </c>
+      <c r="G10" s="116" t="s">
+        <v>234</v>
+      </c>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116">
+        <v>65</v>
+      </c>
+      <c r="J10" s="116" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="120">
+      <c r="B11" s="113">
+        <v>7</v>
+      </c>
+      <c r="C11" s="116" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" s="116" t="s">
+        <v>237</v>
+      </c>
+      <c r="E11" s="116" t="s">
+        <v>238</v>
+      </c>
+      <c r="F11" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="G11" s="116" t="s">
+        <v>239</v>
+      </c>
+      <c r="H11" s="116" t="s">
+        <v>240</v>
+      </c>
+      <c r="I11" s="116">
+        <v>65</v>
+      </c>
+      <c r="J11" s="116" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="60">
+      <c r="B12" s="113">
+        <v>8</v>
+      </c>
+      <c r="C12" s="116" t="s">
+        <v>242</v>
+      </c>
+      <c r="D12" s="116" t="s">
+        <v>243</v>
+      </c>
+      <c r="E12" s="116" t="s">
+        <v>244</v>
+      </c>
+      <c r="F12" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="G12" s="116" t="s">
+        <v>245</v>
+      </c>
+      <c r="H12" s="116" t="s">
+        <v>246</v>
+      </c>
+      <c r="I12" s="116">
+        <v>65</v>
+      </c>
+      <c r="J12" s="116" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="30">
+      <c r="B13" s="113">
+        <v>9</v>
+      </c>
+      <c r="C13" s="116" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="116" t="s">
+        <v>248</v>
+      </c>
+      <c r="E13" s="116" t="s">
+        <v>249</v>
+      </c>
+      <c r="F13" s="116" t="s">
+        <v>212</v>
+      </c>
+      <c r="G13" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="116">
+        <v>65</v>
+      </c>
+      <c r="J13" s="116" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="45">
+      <c r="B14" s="113">
+        <v>10</v>
+      </c>
+      <c r="C14" s="116" t="s">
+        <v>250</v>
+      </c>
+      <c r="D14" s="116" t="s">
+        <v>251</v>
+      </c>
+      <c r="E14" s="116" t="s">
+        <v>252</v>
+      </c>
+      <c r="F14" s="116" t="s">
+        <v>212</v>
+      </c>
+      <c r="G14" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="116">
+        <v>65</v>
+      </c>
+      <c r="J14" s="116" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="45">
+      <c r="B15" s="113">
+        <v>11</v>
+      </c>
+      <c r="C15" s="116" t="s">
+        <v>253</v>
+      </c>
+      <c r="D15" s="116" t="s">
+        <v>254</v>
+      </c>
+      <c r="E15" s="116" t="s">
+        <v>255</v>
+      </c>
+      <c r="F15" s="116" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="116">
+        <v>65</v>
+      </c>
+      <c r="J15" s="116" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="45">
+      <c r="B16" s="113">
+        <v>12</v>
+      </c>
+      <c r="C16" s="116" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="116" t="s">
+        <v>256</v>
+      </c>
+      <c r="E16" s="116" t="s">
+        <v>257</v>
+      </c>
+      <c r="F16" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="G16" s="116" t="s">
+        <v>258</v>
+      </c>
+      <c r="H16" s="116" t="s">
+        <v>259</v>
+      </c>
+      <c r="I16" s="116">
+        <v>65</v>
+      </c>
+      <c r="J16" s="116" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="45">
+      <c r="B17" s="113">
+        <v>13</v>
+      </c>
+      <c r="C17" s="116" t="s">
+        <v>260</v>
+      </c>
+      <c r="D17" s="116" t="s">
+        <v>261</v>
+      </c>
+      <c r="E17" s="116" t="s">
+        <v>262</v>
+      </c>
+      <c r="F17" s="116" t="s">
+        <v>212</v>
+      </c>
+      <c r="G17" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="116">
+        <v>65</v>
+      </c>
+      <c r="J17" s="116" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="113"/>
+      <c r="C18" s="117" t="s">
+        <v>263</v>
+      </c>
+      <c r="D18" s="118"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="121"/>
+    </row>
+    <row r="19" spans="2:10" ht="30">
+      <c r="B19" s="113">
+        <v>14</v>
+      </c>
+      <c r="C19" s="116" t="s">
+        <v>264</v>
+      </c>
+      <c r="D19" s="116" t="s">
+        <v>265</v>
+      </c>
+      <c r="E19" s="116" t="s">
+        <v>266</v>
+      </c>
+      <c r="F19" s="116" t="s">
+        <v>212</v>
+      </c>
+      <c r="G19" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="116">
+        <v>65</v>
+      </c>
+      <c r="J19" s="116" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="60">
+      <c r="B20" s="113">
+        <v>15</v>
+      </c>
+      <c r="C20" s="116" t="s">
+        <v>267</v>
+      </c>
+      <c r="D20" s="116" t="s">
+        <v>268</v>
+      </c>
+      <c r="E20" s="116" t="s">
+        <v>269</v>
+      </c>
+      <c r="F20" s="116" t="s">
+        <v>212</v>
+      </c>
+      <c r="G20" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="116">
+        <v>65</v>
+      </c>
+      <c r="J20" s="116" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="60">
+      <c r="B21" s="113">
+        <v>16</v>
+      </c>
+      <c r="C21" s="116" t="s">
+        <v>223</v>
+      </c>
+      <c r="D21" s="116" t="s">
+        <v>224</v>
+      </c>
+      <c r="E21" s="116" t="s">
+        <v>225</v>
+      </c>
+      <c r="F21" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="G21" s="116" t="s">
+        <v>227</v>
+      </c>
+      <c r="H21" s="116" t="s">
+        <v>228</v>
+      </c>
+      <c r="I21" s="116">
+        <v>65</v>
+      </c>
+      <c r="J21" s="116" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="30">
+      <c r="B22" s="113">
+        <v>17</v>
+      </c>
+      <c r="C22" s="116" t="s">
+        <v>270</v>
+      </c>
+      <c r="D22" s="116" t="s">
+        <v>271</v>
+      </c>
+      <c r="E22" s="116" t="s">
+        <v>272</v>
+      </c>
+      <c r="F22" s="116" t="s">
+        <v>212</v>
+      </c>
+      <c r="G22" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="116">
+        <v>65</v>
+      </c>
+      <c r="J22" s="116" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="45">
+      <c r="B23" s="113">
+        <v>18</v>
+      </c>
+      <c r="C23" s="116" t="s">
+        <v>273</v>
+      </c>
+      <c r="D23" s="116" t="s">
+        <v>274</v>
+      </c>
+      <c r="E23" s="116" t="s">
+        <v>216</v>
+      </c>
+      <c r="F23" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="G23" s="116" t="s">
+        <v>275</v>
+      </c>
+      <c r="H23" s="116" t="s">
+        <v>276</v>
+      </c>
+      <c r="I23" s="116">
+        <v>65</v>
+      </c>
+      <c r="J23" s="116" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="30">
+      <c r="B24" s="113">
+        <v>19</v>
+      </c>
+      <c r="C24" s="116" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="116" t="s">
+        <v>277</v>
+      </c>
+      <c r="E24" s="116" t="s">
+        <v>278</v>
+      </c>
+      <c r="F24" s="116" t="s">
+        <v>212</v>
+      </c>
+      <c r="G24" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="116">
+        <v>65</v>
+      </c>
+      <c r="J24" s="116" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="45">
+      <c r="B25" s="113">
+        <v>20</v>
+      </c>
+      <c r="C25" s="116" t="s">
+        <v>260</v>
+      </c>
+      <c r="D25" s="116" t="s">
+        <v>279</v>
+      </c>
+      <c r="E25" s="116" t="s">
+        <v>262</v>
+      </c>
+      <c r="F25" s="116" t="s">
+        <v>212</v>
+      </c>
+      <c r="G25" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" s="116">
+        <v>65</v>
+      </c>
+      <c r="J25" s="116" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:J18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/N65_HappyLunch.xlsx
+++ b/N65_HappyLunch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AndroidStudioProjects\Happy_Lunch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\apk\git\Happy_Lunch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6F9F58-81CB-41F1-B664-D98B37AAD36D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025FA429-9B11-4B14-AF6F-4D1BBA50356C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="201">
   <si>
     <t>NHÓM 65: HAPPY LUNCH</t>
   </si>
@@ -624,6 +624,9 @@
   </si>
   <si>
     <t>Linear Layout</t>
+  </si>
+  <si>
+    <t>Chờ database</t>
   </si>
 </sst>
 </file>
@@ -631,7 +634,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -1245,7 +1248,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1"/>
@@ -1254,13 +1257,13 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1"/>
@@ -1325,6 +1328,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1343,6 +1356,96 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="16" fontId="12" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="16" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1352,15 +1455,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1370,97 +1464,6 @@
     <xf numFmtId="16" fontId="12" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="16" fontId="12" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="16" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1744,36 +1747,36 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="47.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="42.140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="47.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="42.109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="26.25">
-      <c r="B3" s="66" t="s">
+    <row r="3" spans="2:8" ht="25.8">
+      <c r="B3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
     </row>
     <row r="5" spans="2:8" ht="21">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
     </row>
     <row r="7" spans="2:8" ht="21">
       <c r="B7" s="2" t="s">
@@ -1958,48 +1961,48 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="5.5703125" style="65" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
-    <col min="6" max="6" width="39.7109375" customWidth="1"/>
-    <col min="7" max="7" width="66.85546875" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" style="65" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" customWidth="1"/>
+    <col min="7" max="7" width="66.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="26.25">
-      <c r="B3" s="66" t="s">
+    <row r="3" spans="2:8" ht="25.8">
+      <c r="B3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
     </row>
     <row r="5" spans="2:8" ht="21">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
     </row>
     <row r="9" spans="2:8" ht="21">
       <c r="B9" s="63" t="s">
@@ -2022,7 +2025,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="2:8" ht="37.5">
+    <row r="10" spans="2:8">
       <c r="B10" s="6">
         <v>1</v>
       </c>
@@ -2617,71 +2620,71 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="45"/>
     <col min="2" max="2" width="9" style="61" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="61" customWidth="1"/>
-    <col min="4" max="4" width="50.5703125" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="61" customWidth="1"/>
+    <col min="4" max="4" width="50.5546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.44140625" style="45" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="45" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="59" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="59" customWidth="1"/>
     <col min="10" max="16384" width="9" style="45"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="26.25">
-      <c r="B3" s="93" t="s">
+    <row r="3" spans="1:9" ht="25.8">
+      <c r="B3" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
     </row>
     <row r="5" spans="1:9" ht="21">
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-    </row>
-    <row r="7" spans="1:9" ht="18.75">
-      <c r="B7" s="98" t="s">
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+    </row>
+    <row r="7" spans="1:9" ht="18">
+      <c r="B7" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="102" t="s">
+      <c r="D7" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="104" t="s">
+      <c r="E7" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="95" t="s">
+      <c r="F7" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="96"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="106" t="s">
+      <c r="G7" s="79"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="95" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75">
-      <c r="B8" s="99"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="105"/>
+    <row r="8" spans="1:9" ht="18">
+      <c r="B8" s="82"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="94"/>
       <c r="F8" s="46" t="s">
         <v>60</v>
       </c>
@@ -2691,13 +2694,13 @@
       <c r="H8" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="107"/>
-    </row>
-    <row r="9" spans="1:9" ht="18.75">
-      <c r="B9" s="90" t="s">
+      <c r="I8" s="96"/>
+    </row>
+    <row r="9" spans="1:9" ht="18">
+      <c r="B9" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="88" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="48" t="s">
@@ -2715,9 +2718,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.75">
-      <c r="B10" s="91"/>
-      <c r="C10" s="76"/>
+    <row r="10" spans="1:9" ht="18">
+      <c r="B10" s="84"/>
+      <c r="C10" s="89"/>
       <c r="D10" s="50" t="s">
         <v>65</v>
       </c>
@@ -2735,9 +2738,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18.75">
-      <c r="B11" s="91"/>
-      <c r="C11" s="76"/>
+    <row r="11" spans="1:9" ht="18">
+      <c r="B11" s="84"/>
+      <c r="C11" s="89"/>
       <c r="D11" s="50" t="s">
         <v>68</v>
       </c>
@@ -2753,9 +2756,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.75">
-      <c r="B12" s="91"/>
-      <c r="C12" s="76"/>
+    <row r="12" spans="1:9" ht="18">
+      <c r="B12" s="84"/>
+      <c r="C12" s="89"/>
       <c r="D12" s="50" t="s">
         <v>70</v>
       </c>
@@ -2771,9 +2774,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="19.5" thickBot="1">
-      <c r="B13" s="92"/>
-      <c r="C13" s="77"/>
+    <row r="13" spans="1:9" ht="18.600000000000001" thickBot="1">
+      <c r="B13" s="85"/>
+      <c r="C13" s="90"/>
       <c r="D13" s="51" t="s">
         <v>71</v>
       </c>
@@ -2791,10 +2794,10 @@
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1">
       <c r="A14" s="52"/>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="97" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="106" t="s">
         <v>93</v>
       </c>
       <c r="D14" s="53" t="s">
@@ -2812,10 +2815,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18.75">
+    <row r="15" spans="1:9" ht="18">
       <c r="A15" s="52"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="73"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="107"/>
       <c r="D15" s="55" t="s">
         <v>128</v>
       </c>
@@ -2831,10 +2834,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18.75">
+    <row r="16" spans="1:9" ht="18">
       <c r="A16" s="52"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="73"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="107"/>
       <c r="D16" s="55" t="s">
         <v>131</v>
       </c>
@@ -2850,10 +2853,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18.75">
+    <row r="17" spans="1:9" ht="18">
       <c r="A17" s="52"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="73"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="107"/>
       <c r="D17" s="55" t="s">
         <v>129</v>
       </c>
@@ -2869,10 +2872,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="19.5" thickBot="1">
+    <row r="18" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A18" s="52"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="74"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="108"/>
       <c r="D18" s="56" t="s">
         <v>130</v>
       </c>
@@ -2890,10 +2893,10 @@
     </row>
     <row r="19" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A19" s="52"/>
-      <c r="B19" s="84">
+      <c r="B19" s="100">
         <v>43712</v>
       </c>
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="88" t="s">
         <v>92</v>
       </c>
       <c r="D19" s="48" t="s">
@@ -2911,10 +2914,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="19.5" thickBot="1">
+    <row r="20" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A20" s="52"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="76"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="89"/>
       <c r="D20" s="50" t="s">
         <v>133</v>
       </c>
@@ -2930,10 +2933,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="19.5" thickBot="1">
+    <row r="21" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A21" s="52"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="76"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="89"/>
       <c r="D21" s="50" t="s">
         <v>134</v>
       </c>
@@ -2949,10 +2952,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="19.5" thickBot="1">
+    <row r="22" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A22" s="52"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="76"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="89"/>
       <c r="D22" s="50" t="s">
         <v>76</v>
       </c>
@@ -2968,10 +2971,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="19.5" thickBot="1">
+    <row r="23" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A23" s="52"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="77"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="90"/>
       <c r="D23" s="51" t="s">
         <v>77</v>
       </c>
@@ -2987,12 +2990,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18.75">
+    <row r="24" spans="1:9" ht="18">
       <c r="A24" s="52"/>
-      <c r="B24" s="87" t="s">
+      <c r="B24" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="106" t="s">
         <v>103</v>
       </c>
       <c r="D24" s="53" t="s">
@@ -3010,10 +3013,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18.75">
+    <row r="25" spans="1:9" ht="18">
       <c r="A25" s="52"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="73"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="107"/>
       <c r="D25" s="55" t="s">
         <v>135</v>
       </c>
@@ -3029,10 +3032,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18.75">
+    <row r="26" spans="1:9" ht="18">
       <c r="A26" s="52"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="73"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="107"/>
       <c r="D26" s="55" t="s">
         <v>136</v>
       </c>
@@ -3048,10 +3051,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="18.75">
+    <row r="27" spans="1:9" ht="18">
       <c r="A27" s="52"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="73"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="107"/>
       <c r="D27" s="55" t="s">
         <v>100</v>
       </c>
@@ -3067,10 +3070,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="18.75">
+    <row r="28" spans="1:9" ht="18">
       <c r="A28" s="52"/>
-      <c r="B28" s="89"/>
-      <c r="C28" s="78"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="109"/>
       <c r="D28" s="57" t="s">
         <v>101</v>
       </c>
@@ -3086,12 +3089,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18.75">
+    <row r="29" spans="1:9" ht="18">
       <c r="A29" s="52"/>
-      <c r="B29" s="90" t="s">
+      <c r="B29" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="79">
+      <c r="C29" s="110">
         <v>43588</v>
       </c>
       <c r="D29" s="48" t="s">
@@ -3109,10 +3112,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18.75">
+    <row r="30" spans="1:9" ht="18">
       <c r="A30" s="52"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="76"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="89"/>
       <c r="D30" s="50" t="s">
         <v>138</v>
       </c>
@@ -3128,10 +3131,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="18.75">
+    <row r="31" spans="1:9" ht="18">
       <c r="A31" s="52"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="76"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="89"/>
       <c r="D31" s="50" t="s">
         <v>127</v>
       </c>
@@ -3147,10 +3150,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="18.75">
+    <row r="32" spans="1:9" ht="18">
       <c r="A32" s="52"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="76"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="89"/>
       <c r="D32" s="50" t="s">
         <v>140</v>
       </c>
@@ -3166,10 +3169,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="18.75">
+    <row r="33" spans="1:9" ht="18">
       <c r="A33" s="52"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="77"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="90"/>
       <c r="D33" s="51" t="s">
         <v>137</v>
       </c>
@@ -3185,12 +3188,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="18.75">
+    <row r="34" spans="1:9" ht="18">
       <c r="A34" s="52"/>
-      <c r="B34" s="87">
+      <c r="B34" s="103">
         <v>43588</v>
       </c>
-      <c r="C34" s="80">
+      <c r="C34" s="111">
         <v>43589</v>
       </c>
       <c r="D34" s="53" t="s">
@@ -3208,10 +3211,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="18.75">
+    <row r="35" spans="1:9" ht="18">
       <c r="A35" s="52"/>
-      <c r="B35" s="88"/>
-      <c r="C35" s="73"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="107"/>
       <c r="D35" s="55" t="s">
         <v>143</v>
       </c>
@@ -3227,10 +3230,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="18.75">
+    <row r="36" spans="1:9" ht="18">
       <c r="A36" s="52"/>
-      <c r="B36" s="88"/>
-      <c r="C36" s="73"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="107"/>
       <c r="D36" s="55" t="s">
         <v>139</v>
       </c>
@@ -3246,10 +3249,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="18.75">
+    <row r="37" spans="1:9" ht="18">
       <c r="A37" s="52"/>
-      <c r="B37" s="88"/>
-      <c r="C37" s="73"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="107"/>
       <c r="D37" s="55" t="s">
         <v>142</v>
       </c>
@@ -3265,10 +3268,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="19.5" thickBot="1">
+    <row r="38" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A38" s="52"/>
-      <c r="B38" s="89"/>
-      <c r="C38" s="78"/>
+      <c r="B38" s="105"/>
+      <c r="C38" s="109"/>
       <c r="D38" s="57" t="s">
         <v>141</v>
       </c>
@@ -3284,7 +3287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="18.75">
+    <row r="39" spans="1:9" ht="18">
       <c r="A39" s="52"/>
       <c r="B39" s="60"/>
       <c r="C39" s="60"/>
@@ -3295,7 +3298,7 @@
       <c r="H39" s="52"/>
       <c r="I39" s="58"/>
     </row>
-    <row r="40" spans="1:9" ht="18.75">
+    <row r="40" spans="1:9" ht="18">
       <c r="A40" s="52"/>
       <c r="B40" s="60"/>
       <c r="C40" s="60"/>
@@ -3306,7 +3309,7 @@
       <c r="H40" s="52"/>
       <c r="I40" s="58"/>
     </row>
-    <row r="41" spans="1:9" ht="18.75">
+    <row r="41" spans="1:9" ht="18">
       <c r="A41" s="52"/>
       <c r="B41" s="60"/>
       <c r="C41" s="60"/>
@@ -3317,7 +3320,7 @@
       <c r="H41" s="52"/>
       <c r="I41" s="58"/>
     </row>
-    <row r="42" spans="1:9" ht="18.75">
+    <row r="42" spans="1:9" ht="18">
       <c r="A42" s="52"/>
       <c r="B42" s="60"/>
       <c r="C42" s="60"/>
@@ -3328,7 +3331,7 @@
       <c r="H42" s="52"/>
       <c r="I42" s="58"/>
     </row>
-    <row r="43" spans="1:9" ht="18.75">
+    <row r="43" spans="1:9" ht="18">
       <c r="A43" s="52"/>
       <c r="B43" s="60"/>
       <c r="C43" s="60"/>
@@ -3339,7 +3342,7 @@
       <c r="H43" s="52"/>
       <c r="I43" s="58"/>
     </row>
-    <row r="44" spans="1:9" ht="18.75">
+    <row r="44" spans="1:9" ht="18">
       <c r="A44" s="52"/>
       <c r="B44" s="60"/>
       <c r="C44" s="60"/>
@@ -3350,7 +3353,7 @@
       <c r="H44" s="52"/>
       <c r="I44" s="58"/>
     </row>
-    <row r="45" spans="1:9" ht="18.75">
+    <row r="45" spans="1:9" ht="18">
       <c r="A45" s="52"/>
       <c r="B45" s="60"/>
       <c r="C45" s="60"/>
@@ -3361,7 +3364,7 @@
       <c r="H45" s="52"/>
       <c r="I45" s="58"/>
     </row>
-    <row r="46" spans="1:9" ht="18.75">
+    <row r="46" spans="1:9" ht="18">
       <c r="A46" s="52"/>
       <c r="B46" s="60"/>
       <c r="C46" s="60"/>
@@ -3372,7 +3375,7 @@
       <c r="H46" s="52"/>
       <c r="I46" s="58"/>
     </row>
-    <row r="47" spans="1:9" ht="18.75">
+    <row r="47" spans="1:9" ht="18">
       <c r="A47" s="52"/>
       <c r="B47" s="60"/>
       <c r="C47" s="60"/>
@@ -3383,7 +3386,7 @@
       <c r="H47" s="52"/>
       <c r="I47" s="58"/>
     </row>
-    <row r="48" spans="1:9" ht="18.75">
+    <row r="48" spans="1:9" ht="18">
       <c r="A48" s="52"/>
       <c r="B48" s="60"/>
       <c r="C48" s="60"/>
@@ -3394,7 +3397,7 @@
       <c r="H48" s="52"/>
       <c r="I48" s="58"/>
     </row>
-    <row r="49" spans="1:9" ht="18.75">
+    <row r="49" spans="1:9" ht="18">
       <c r="A49" s="52"/>
       <c r="B49" s="60"/>
       <c r="C49" s="60"/>
@@ -3405,7 +3408,7 @@
       <c r="H49" s="52"/>
       <c r="I49" s="58"/>
     </row>
-    <row r="50" spans="1:9" ht="18.75">
+    <row r="50" spans="1:9" ht="18">
       <c r="A50" s="52"/>
       <c r="B50" s="60"/>
       <c r="C50" s="60"/>
@@ -3416,7 +3419,7 @@
       <c r="H50" s="52"/>
       <c r="I50" s="58"/>
     </row>
-    <row r="51" spans="1:9" ht="18.75">
+    <row r="51" spans="1:9" ht="18">
       <c r="D51" s="52"/>
       <c r="E51" s="52"/>
       <c r="F51" s="52"/>
@@ -3424,7 +3427,7 @@
       <c r="H51" s="52"/>
       <c r="I51" s="58"/>
     </row>
-    <row r="52" spans="1:9" ht="18.75">
+    <row r="52" spans="1:9" ht="18">
       <c r="D52" s="52"/>
       <c r="E52" s="52"/>
       <c r="F52" s="52"/>
@@ -3434,6 +3437,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B38"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="F7:H7"/>
@@ -3444,16 +3457,6 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="C34:C38"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3464,419 +3467,419 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AA2E22-B916-4D99-A156-90D9CC0DC7BC}">
   <dimension ref="B2:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="77.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="37.5">
-      <c r="B2" s="108" t="s">
+    <row r="2" spans="2:8" ht="18">
+      <c r="B2" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="F2" s="108" t="s">
+      <c r="F2" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="108" t="s">
+      <c r="G2" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="H2" s="108" t="s">
+      <c r="H2" s="66" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="30">
-      <c r="B3" s="109" t="s">
+    <row r="3" spans="2:8">
+      <c r="B3" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="109" t="s">
+      <c r="D3" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="G3" s="109" t="s">
+      <c r="G3" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="H3" s="109" t="s">
+      <c r="H3" s="67" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="30">
-      <c r="B4" s="109" t="s">
+    <row r="4" spans="2:8">
+      <c r="B4" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109" t="s">
+      <c r="E4" s="67"/>
+      <c r="F4" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="G4" s="109" t="s">
+      <c r="G4" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="H4" s="109" t="s">
+      <c r="H4" s="67" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="30">
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109" t="s">
+    <row r="5" spans="2:8">
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109" t="s">
+      <c r="E5" s="67"/>
+      <c r="F5" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="G5" s="109" t="s">
+      <c r="G5" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="H5" s="109" t="s">
+      <c r="H5" s="67" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="30">
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109" t="s">
+    <row r="6" spans="2:8">
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="E6" s="109" t="s">
+      <c r="E6" s="67" t="s">
         <v>184</v>
       </c>
-      <c r="F6" s="109" t="s">
+      <c r="F6" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="G6" s="109" t="s">
+      <c r="G6" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="H6" s="109" t="s">
+      <c r="H6" s="67" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="30">
-      <c r="B7" s="109"/>
-      <c r="C7" s="109" t="s">
+    <row r="7" spans="2:8">
+      <c r="B7" s="67"/>
+      <c r="C7" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="109" t="s">
+      <c r="D7" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="E7" s="109" t="s">
+      <c r="E7" s="67" t="s">
         <v>184</v>
       </c>
-      <c r="F7" s="109" t="s">
+      <c r="F7" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="G7" s="109" t="s">
+      <c r="G7" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="H7" s="109" t="s">
+      <c r="H7" s="67" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="30">
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109" t="s">
+    <row r="8" spans="2:8">
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="E8" s="109" t="s">
+      <c r="E8" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109" t="s">
+      <c r="F8" s="67"/>
+      <c r="G8" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="H8" s="109" t="s">
+      <c r="H8" s="67" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="30">
-      <c r="B9" s="109"/>
-      <c r="C9" s="109" t="s">
+    <row r="9" spans="2:8">
+      <c r="B9" s="67"/>
+      <c r="C9" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="E9" s="109" t="s">
+      <c r="E9" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109" t="s">
+      <c r="F9" s="67"/>
+      <c r="G9" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="H9" s="109" t="s">
+      <c r="H9" s="67" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="30">
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109" t="s">
+    <row r="10" spans="2:8">
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="E10" s="109" t="s">
+      <c r="E10" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="F10" s="109" t="s">
+      <c r="F10" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="G10" s="109" t="s">
+      <c r="G10" s="67" t="s">
+        <v>200</v>
+      </c>
+      <c r="H10" s="67" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="67" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" s="67" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="H10" s="109" t="s">
+      <c r="H11" s="67" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="30">
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109" t="s">
-        <v>176</v>
-      </c>
-      <c r="E11" s="109" t="s">
-        <v>177</v>
-      </c>
-      <c r="F11" s="109" t="s">
+    <row r="12" spans="2:8">
+      <c r="B12" s="67"/>
+      <c r="C12" s="67" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" s="67" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" s="67" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" s="67" t="s">
+        <v>194</v>
+      </c>
+      <c r="G13" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="H13" s="67" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" s="67" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="F15" s="67" t="s">
         <v>193</v>
       </c>
-      <c r="G11" s="109" t="s">
+      <c r="G15" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="H11" s="109" t="s">
+      <c r="H15" s="67" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="30">
-      <c r="B12" s="109"/>
-      <c r="C12" s="109" t="s">
-        <v>164</v>
-      </c>
-      <c r="D12" s="109" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" s="109" t="s">
-        <v>166</v>
-      </c>
-      <c r="F12" s="109" t="s">
-        <v>194</v>
-      </c>
-      <c r="G12" s="109" t="s">
+    <row r="16" spans="2:8">
+      <c r="B16" s="67"/>
+      <c r="C16" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="67" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="67" t="s">
+        <v>191</v>
+      </c>
+      <c r="G16" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="H12" s="109" t="s">
+      <c r="H16" s="67" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="30">
-      <c r="B13" s="109"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109" t="s">
-        <v>167</v>
-      </c>
-      <c r="E13" s="109" t="s">
-        <v>168</v>
-      </c>
-      <c r="F13" s="109" t="s">
-        <v>194</v>
-      </c>
-      <c r="G13" s="109" t="s">
+    <row r="17" spans="2:8">
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="G17" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="H13" s="109" t="s">
+      <c r="H17" s="67" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="30">
-      <c r="B14" s="109"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109" t="s">
-        <v>169</v>
-      </c>
-      <c r="E14" s="109" t="s">
-        <v>195</v>
-      </c>
-      <c r="F14" s="109" t="s">
+    <row r="18" spans="2:8">
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67" t="s">
+        <v>185</v>
+      </c>
+      <c r="E18" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="G14" s="109" t="s">
+      <c r="G18" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="H14" s="109" t="s">
+      <c r="H18" s="67" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="30">
-      <c r="B15" s="109" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="109" t="s">
-        <v>175</v>
-      </c>
-      <c r="D15" s="109" t="s">
-        <v>178</v>
-      </c>
-      <c r="E15" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="F15" s="109" t="s">
-        <v>193</v>
-      </c>
-      <c r="G15" s="109" t="s">
+    <row r="19" spans="2:8" ht="28.8">
+      <c r="B19" s="67"/>
+      <c r="C19" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="E19" s="67" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="H15" s="109" t="s">
+      <c r="H19" s="67" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="30">
-      <c r="B16" s="109"/>
-      <c r="C16" s="109" t="s">
-        <v>180</v>
-      </c>
-      <c r="D16" s="109" t="s">
-        <v>153</v>
-      </c>
-      <c r="E16" s="109" t="s">
-        <v>181</v>
-      </c>
-      <c r="F16" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="G16" s="109" t="s">
+    <row r="20" spans="2:8" ht="28.8">
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67" t="s">
+        <v>189</v>
+      </c>
+      <c r="E20" s="67" t="s">
+        <v>190</v>
+      </c>
+      <c r="F20" s="68" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="H16" s="109" t="s">
+      <c r="H20" s="67" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="30">
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109" t="s">
-        <v>182</v>
-      </c>
-      <c r="E17" s="109" t="s">
-        <v>183</v>
-      </c>
-      <c r="F17" s="109" t="s">
-        <v>196</v>
-      </c>
-      <c r="G17" s="109" t="s">
-        <v>148</v>
-      </c>
-      <c r="H17" s="109" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="30">
-      <c r="B18" s="109"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109" t="s">
-        <v>185</v>
-      </c>
-      <c r="E18" s="109" t="s">
-        <v>186</v>
-      </c>
-      <c r="F18" s="109" t="s">
-        <v>196</v>
-      </c>
-      <c r="G18" s="109" t="s">
-        <v>148</v>
-      </c>
-      <c r="H18" s="109" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="30">
-      <c r="B19" s="109"/>
-      <c r="C19" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="D19" s="109" t="s">
-        <v>187</v>
-      </c>
-      <c r="E19" s="109" t="s">
-        <v>188</v>
-      </c>
-      <c r="F19" s="109" t="s">
+    <row r="21" spans="2:8">
+      <c r="B21" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67" t="s">
         <v>197</v>
       </c>
-      <c r="G19" s="109" t="s">
-        <v>148</v>
-      </c>
-      <c r="H19" s="109" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="30">
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109" t="s">
-        <v>189</v>
-      </c>
-      <c r="E20" s="109" t="s">
-        <v>190</v>
-      </c>
-      <c r="F20" s="110" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="109" t="s">
-        <v>148</v>
-      </c>
-      <c r="H20" s="109" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="109" t="s">
-        <v>197</v>
-      </c>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="111" t="s">
+      <c r="B22" s="69" t="s">
         <v>199</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
-      <c r="F22" s="111" t="s">
+      <c r="F22" s="69" t="s">
         <v>194</v>
       </c>
       <c r="G22" s="15"/>

--- a/N65_HappyLunch.xlsx
+++ b/N65_HappyLunch.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\apk\git\Happy_Lunch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025FA429-9B11-4B14-AF6F-4D1BBA50356C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BBBC58-4D98-487C-A4CC-F3879B5E6C6E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="UAT" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="281">
   <si>
     <t>NHÓM 65: HAPPY LUNCH</t>
   </si>
@@ -626,7 +627,247 @@
     <t>Linear Layout</t>
   </si>
   <si>
-    <t>Chờ database</t>
+    <t>UAT NHÓM 65 - TỰ TEST</t>
+  </si>
+  <si>
+    <t>Tên Test case</t>
+  </si>
+  <si>
+    <t>Các bước thực hiện</t>
+  </si>
+  <si>
+    <t>Kết quả mong đợi</t>
+  </si>
+  <si>
+    <t>Kết quả thực tế</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Góp ý</t>
+  </si>
+  <si>
+    <t>Nhóm thực hiện test</t>
+  </si>
+  <si>
+    <t>Nhóm code đồng ý chỉnh sửa (có/không)</t>
+  </si>
+  <si>
+    <t>Đăng nhập</t>
+  </si>
+  <si>
+    <t>Nhập tên đăng nhập, nhập mật khẩu, chọn loại đăng nhập, nhấn đăng nhập</t>
+  </si>
+  <si>
+    <t>Đăng nhập thành công</t>
+  </si>
+  <si>
+    <t>Đạt</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Đăng nhập sai tên đăng nhập</t>
+  </si>
+  <si>
+    <t>Nhập tên đăng nhập không đúng, nhập mật khẩu, chọn loại đăng nhập, nhấn đăng nhập</t>
+  </si>
+  <si>
+    <t>Báo lỗi đăng nhập thất bại</t>
+  </si>
+  <si>
+    <t>Đăng nhập sai mật khẩu</t>
+  </si>
+  <si>
+    <t>Nhập tên đăng nhập đúng, nhập mật khẩu không đúng, chọn loại đăng nhập, nhấn đăng nhập</t>
+  </si>
+  <si>
+    <t>Đăng ký</t>
+  </si>
+  <si>
+    <t>Nhập email, mật khẩu, và vào email đó xác nhận để tạo tài khoản</t>
+  </si>
+  <si>
+    <t>Tạo tài khoản thành công</t>
+  </si>
+  <si>
+    <t>Giao diện Customer</t>
+  </si>
+  <si>
+    <t>Tìm kiếm món ăn</t>
+  </si>
+  <si>
+    <t>Nhập món ăn cần tìm vào thanh tìm kiếm, sau đó hiển thị danh sách tìm được</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách tìm được</t>
+  </si>
+  <si>
+    <t>Chưa đạt</t>
+  </si>
+  <si>
+    <t>Dù có hiển thị danh sách nhưng không quét hết</t>
+  </si>
+  <si>
+    <t>Cần hoàn thiện lại đủ món ăn</t>
+  </si>
+  <si>
+    <t>Sẽ chỉnh sửa</t>
+  </si>
+  <si>
+    <t>Thông báo nhắc nhở món ăn cần phải lấy</t>
+  </si>
+  <si>
+    <t>Khi đến thời gian lấy món ăn sẽ hiển thị thông báo</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo đúng thời gian</t>
+  </si>
+  <si>
+    <t>Chưa test</t>
+  </si>
+  <si>
+    <t>Do có sự chỉnh sửa database nên chưa test được</t>
+  </si>
+  <si>
+    <t>Sẽ test sau</t>
+  </si>
+  <si>
+    <t>Đặt món</t>
+  </si>
+  <si>
+    <t>Chọn món ăn và đặt món</t>
+  </si>
+  <si>
+    <t>Món được đưa vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>Món ăn được đặt ngay sau khi chọn, không được đưa vào giỏ hàng để khách hàng xác nhận lại lần cuối</t>
+  </si>
+  <si>
+    <t>Cần cho customer chọn hết món ăn vào giỏ hàng rồi mới xác nhận</t>
+  </si>
+  <si>
+    <t>Sẽ chỉnh sửa lại giao diện</t>
+  </si>
+  <si>
+    <t>Hủy món</t>
+  </si>
+  <si>
+    <t>Chọn món ăn và hủy món</t>
+  </si>
+  <si>
+    <t>Hủy thành công</t>
+  </si>
+  <si>
+    <t>Hủy món không được, bị đưa vào second shop</t>
+  </si>
+  <si>
+    <t>Hủy món chữ bị chồng chaatsleen nhau</t>
+  </si>
+  <si>
+    <t>Sẽ chỉnh sửa lỗi chữ bị đè lên nhau</t>
+  </si>
+  <si>
+    <t>Sau khi đưa vào second shop giá giảm 10% và 10% đó customer chịu</t>
+  </si>
+  <si>
+    <t>Nhượng lịa thành công</t>
+  </si>
+  <si>
+    <t>Kiểm tra tài khoản customer</t>
+  </si>
+  <si>
+    <t>Vào tab Account và nhấn kiểm tra tài khoản</t>
+  </si>
+  <si>
+    <t>Hiển thị các thông tin về tài khoản</t>
+  </si>
+  <si>
+    <t>Cài đặt tài khoản customer</t>
+  </si>
+  <si>
+    <t>Vào tab Account và nhấn cài đặt tài khoản</t>
+  </si>
+  <si>
+    <t>Hiệu chỉnh thành công các thông tin về tài khoản</t>
+  </si>
+  <si>
+    <t>Vào tab Account và nhấn kiểm tra hóa đơn</t>
+  </si>
+  <si>
+    <t>Hiển thị tất cả hóa đơn đã đặt</t>
+  </si>
+  <si>
+    <t>Hiển thị một giao diện trắng</t>
+  </si>
+  <si>
+    <t>Cần điều hướng đến đúng chỗ</t>
+  </si>
+  <si>
+    <t>Đăng xuất</t>
+  </si>
+  <si>
+    <t>Vào tab Account và nhấn Đăng xuất</t>
+  </si>
+  <si>
+    <t>Đăng xuất và điều hướng ra màn hình đăng nhập</t>
+  </si>
+  <si>
+    <t>Giao diện Employee</t>
+  </si>
+  <si>
+    <t>Nhận món ăn</t>
+  </si>
+  <si>
+    <t>Vào giao diện ordered, nhận món ăn</t>
+  </si>
+  <si>
+    <t>Nhận món ăn thành công</t>
+  </si>
+  <si>
+    <t>Thêm món mới</t>
+  </si>
+  <si>
+    <t>Vào giao diện Shop, nhấn vào button hình dấu cộng và chọn món</t>
+  </si>
+  <si>
+    <t>Thêm món thành công, hiển thị trên giao diện của Customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cập nhật tiền cho Customers </t>
+  </si>
+  <si>
+    <t>Vào tab Customers, tìm MSSV, nhập số tiền và chọn Customer</t>
+  </si>
+  <si>
+    <t>Tiền được cộng vào tài khoản</t>
+  </si>
+  <si>
+    <t>Cập nhật tiền cho Customers - nhập sai số tiền</t>
+  </si>
+  <si>
+    <t>Vào tab Customers, tìm MSSV, không nhập số tiền và chọn Customer</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa lại hiện thông báo báo lỗi</t>
+  </si>
+  <si>
+    <t>Cần chỉnh sủa lại</t>
+  </si>
+  <si>
+    <t>Vào tab Profile và nhấn kiểm tra hóa đơn</t>
+  </si>
+  <si>
+    <t>Hiển thị hóa đơn đã nhận</t>
+  </si>
+  <si>
+    <t>Vào tab Profile và nhấn Đăng xuất</t>
+  </si>
+  <si>
+    <t>Một số chức năng (cụ thể ở Sheet4)</t>
   </si>
 </sst>
 </file>
@@ -636,7 +877,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,11 +900,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -671,7 +919,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -679,14 +927,14 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -694,7 +942,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -702,7 +950,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -710,20 +958,20 @@
       <sz val="14"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -772,8 +1020,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -792,8 +1055,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1211,115 +1480,153 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="12" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="13" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="13" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1328,144 +1635,179 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="16" fontId="12" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="16" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="16" fontId="12" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="16" fontId="12" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
@@ -1744,7 +2086,7 @@
   <dimension ref="B3:H14"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18"/>
@@ -1761,22 +2103,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="25.8">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="5" spans="2:8" ht="21">
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
     </row>
     <row r="7" spans="2:8" ht="21">
       <c r="B7" s="2" t="s">
@@ -1927,9 +2275,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:H5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -1947,6 +2296,7 @@
     <hyperlink ref="H12" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="H11" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="H10" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E5" r:id="rId16" xr:uid="{A78C4A43-701F-4A5A-8BDE-567DE0B541C1}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1957,8 +2307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1972,37 +2322,37 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="25.8">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="5" spans="2:8" ht="21">
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
     </row>
     <row r="9" spans="2:8" ht="21">
       <c r="B9" s="63" t="s">
@@ -2535,7 +2885,9 @@
       </c>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="6"/>
+      <c r="B35" s="6">
+        <v>26</v>
+      </c>
       <c r="C35" s="34"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
@@ -2616,8 +2968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2635,56 +2987,56 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="25.8">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
     </row>
     <row r="5" spans="1:9" ht="21">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
     </row>
     <row r="7" spans="1:9" ht="18">
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="110" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="93" t="s">
+      <c r="E7" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="78" t="s">
+      <c r="F7" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="95" t="s">
+      <c r="G7" s="104"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="114" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18">
-      <c r="B8" s="82"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="94"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="113"/>
       <c r="F8" s="46" t="s">
         <v>60</v>
       </c>
@@ -2694,13 +3046,13 @@
       <c r="H8" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="96"/>
+      <c r="I8" s="115"/>
     </row>
     <row r="9" spans="1:9" ht="18">
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="83" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="48" t="s">
@@ -2719,8 +3071,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="18">
-      <c r="B10" s="84"/>
-      <c r="C10" s="89"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="84"/>
       <c r="D10" s="50" t="s">
         <v>65</v>
       </c>
@@ -2739,8 +3091,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="18">
-      <c r="B11" s="84"/>
-      <c r="C11" s="89"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="50" t="s">
         <v>68</v>
       </c>
@@ -2757,8 +3109,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="18">
-      <c r="B12" s="84"/>
-      <c r="C12" s="89"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="84"/>
       <c r="D12" s="50" t="s">
         <v>70</v>
       </c>
@@ -2775,8 +3127,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.600000000000001" thickBot="1">
-      <c r="B13" s="85"/>
-      <c r="C13" s="90"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="51" t="s">
         <v>71</v>
       </c>
@@ -2794,10 +3146,10 @@
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1">
       <c r="A14" s="52"/>
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="106" t="s">
+      <c r="C14" s="80" t="s">
         <v>93</v>
       </c>
       <c r="D14" s="53" t="s">
@@ -2817,8 +3169,8 @@
     </row>
     <row r="15" spans="1:9" ht="18">
       <c r="A15" s="52"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="107"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="81"/>
       <c r="D15" s="55" t="s">
         <v>128</v>
       </c>
@@ -2836,8 +3188,8 @@
     </row>
     <row r="16" spans="1:9" ht="18">
       <c r="A16" s="52"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="107"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="81"/>
       <c r="D16" s="55" t="s">
         <v>131</v>
       </c>
@@ -2855,8 +3207,8 @@
     </row>
     <row r="17" spans="1:9" ht="18">
       <c r="A17" s="52"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="107"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="81"/>
       <c r="D17" s="55" t="s">
         <v>129</v>
       </c>
@@ -2874,8 +3226,8 @@
     </row>
     <row r="18" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A18" s="52"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="108"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="82"/>
       <c r="D18" s="56" t="s">
         <v>130</v>
       </c>
@@ -2893,10 +3245,10 @@
     </row>
     <row r="19" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A19" s="52"/>
-      <c r="B19" s="100">
+      <c r="B19" s="92">
         <v>43712</v>
       </c>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="83" t="s">
         <v>92</v>
       </c>
       <c r="D19" s="48" t="s">
@@ -2916,8 +3268,8 @@
     </row>
     <row r="20" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A20" s="52"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="89"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="84"/>
       <c r="D20" s="50" t="s">
         <v>133</v>
       </c>
@@ -2935,8 +3287,8 @@
     </row>
     <row r="21" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A21" s="52"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="89"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="84"/>
       <c r="D21" s="50" t="s">
         <v>134</v>
       </c>
@@ -2954,8 +3306,8 @@
     </row>
     <row r="22" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A22" s="52"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="89"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="84"/>
       <c r="D22" s="50" t="s">
         <v>76</v>
       </c>
@@ -2973,8 +3325,8 @@
     </row>
     <row r="23" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A23" s="52"/>
-      <c r="B23" s="102"/>
-      <c r="C23" s="90"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="85"/>
       <c r="D23" s="51" t="s">
         <v>77</v>
       </c>
@@ -2992,10 +3344,10 @@
     </row>
     <row r="24" spans="1:9" ht="18">
       <c r="A24" s="52"/>
-      <c r="B24" s="103" t="s">
+      <c r="B24" s="95" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="106" t="s">
+      <c r="C24" s="80" t="s">
         <v>103</v>
       </c>
       <c r="D24" s="53" t="s">
@@ -3015,8 +3367,8 @@
     </row>
     <row r="25" spans="1:9" ht="18">
       <c r="A25" s="52"/>
-      <c r="B25" s="104"/>
-      <c r="C25" s="107"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="81"/>
       <c r="D25" s="55" t="s">
         <v>135</v>
       </c>
@@ -3034,8 +3386,8 @@
     </row>
     <row r="26" spans="1:9" ht="18">
       <c r="A26" s="52"/>
-      <c r="B26" s="104"/>
-      <c r="C26" s="107"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="81"/>
       <c r="D26" s="55" t="s">
         <v>136</v>
       </c>
@@ -3053,8 +3405,8 @@
     </row>
     <row r="27" spans="1:9" ht="18">
       <c r="A27" s="52"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="107"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="81"/>
       <c r="D27" s="55" t="s">
         <v>100</v>
       </c>
@@ -3072,8 +3424,8 @@
     </row>
     <row r="28" spans="1:9" ht="18">
       <c r="A28" s="52"/>
-      <c r="B28" s="105"/>
-      <c r="C28" s="109"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="86"/>
       <c r="D28" s="57" t="s">
         <v>101</v>
       </c>
@@ -3091,10 +3443,10 @@
     </row>
     <row r="29" spans="1:9" ht="18">
       <c r="A29" s="52"/>
-      <c r="B29" s="83" t="s">
+      <c r="B29" s="98" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="110">
+      <c r="C29" s="87">
         <v>43588</v>
       </c>
       <c r="D29" s="48" t="s">
@@ -3114,8 +3466,8 @@
     </row>
     <row r="30" spans="1:9" ht="18">
       <c r="A30" s="52"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="89"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="84"/>
       <c r="D30" s="50" t="s">
         <v>138</v>
       </c>
@@ -3133,8 +3485,8 @@
     </row>
     <row r="31" spans="1:9" ht="18">
       <c r="A31" s="52"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="89"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="84"/>
       <c r="D31" s="50" t="s">
         <v>127</v>
       </c>
@@ -3152,8 +3504,8 @@
     </row>
     <row r="32" spans="1:9" ht="18">
       <c r="A32" s="52"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="89"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="84"/>
       <c r="D32" s="50" t="s">
         <v>140</v>
       </c>
@@ -3171,8 +3523,8 @@
     </row>
     <row r="33" spans="1:9" ht="18">
       <c r="A33" s="52"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="90"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="85"/>
       <c r="D33" s="51" t="s">
         <v>137</v>
       </c>
@@ -3190,10 +3542,10 @@
     </row>
     <row r="34" spans="1:9" ht="18">
       <c r="A34" s="52"/>
-      <c r="B34" s="103">
+      <c r="B34" s="95">
         <v>43588</v>
       </c>
-      <c r="C34" s="111">
+      <c r="C34" s="88">
         <v>43589</v>
       </c>
       <c r="D34" s="53" t="s">
@@ -3213,8 +3565,8 @@
     </row>
     <row r="35" spans="1:9" ht="18">
       <c r="A35" s="52"/>
-      <c r="B35" s="104"/>
-      <c r="C35" s="107"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="81"/>
       <c r="D35" s="55" t="s">
         <v>143</v>
       </c>
@@ -3232,8 +3584,8 @@
     </row>
     <row r="36" spans="1:9" ht="18">
       <c r="A36" s="52"/>
-      <c r="B36" s="104"/>
-      <c r="C36" s="107"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="81"/>
       <c r="D36" s="55" t="s">
         <v>139</v>
       </c>
@@ -3251,8 +3603,8 @@
     </row>
     <row r="37" spans="1:9" ht="18">
       <c r="A37" s="52"/>
-      <c r="B37" s="104"/>
-      <c r="C37" s="107"/>
+      <c r="B37" s="96"/>
+      <c r="C37" s="81"/>
       <c r="D37" s="55" t="s">
         <v>142</v>
       </c>
@@ -3270,8 +3622,8 @@
     </row>
     <row r="38" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A38" s="52"/>
-      <c r="B38" s="105"/>
-      <c r="C38" s="109"/>
+      <c r="B38" s="97"/>
+      <c r="C38" s="86"/>
       <c r="D38" s="57" t="s">
         <v>141</v>
       </c>
@@ -3287,60 +3639,84 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="18">
+    <row r="39" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A39" s="52"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="58"/>
-    </row>
-    <row r="40" spans="1:9" ht="18">
+      <c r="B39" s="122">
+        <v>43593</v>
+      </c>
+      <c r="C39" s="87">
+        <v>43599</v>
+      </c>
+      <c r="D39" s="123" t="s">
+        <v>280</v>
+      </c>
+      <c r="E39" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="49"/>
+    </row>
+    <row r="40" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A40" s="52"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="58"/>
-    </row>
-    <row r="41" spans="1:9" ht="18">
+      <c r="B40" s="99"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="123" t="s">
+        <v>280</v>
+      </c>
+      <c r="E40" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="49"/>
+    </row>
+    <row r="41" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A41" s="52"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="58"/>
-    </row>
-    <row r="42" spans="1:9" ht="18">
+      <c r="B41" s="99"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="123" t="s">
+        <v>280</v>
+      </c>
+      <c r="E41" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="49"/>
+    </row>
+    <row r="42" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A42" s="52"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="58"/>
-    </row>
-    <row r="43" spans="1:9" ht="18">
+      <c r="B42" s="99"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="123" t="s">
+        <v>280</v>
+      </c>
+      <c r="E42" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="49"/>
+    </row>
+    <row r="43" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A43" s="52"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="58"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="123" t="s">
+        <v>280</v>
+      </c>
+      <c r="E43" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="49"/>
     </row>
     <row r="44" spans="1:9" ht="18">
       <c r="A44" s="52"/>
@@ -3436,17 +3812,9 @@
       <c r="I52" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B34:B38"/>
+  <mergeCells count="22">
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C39:C43"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="F7:H7"/>
@@ -3457,6 +3825,16 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C34:C38"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3467,8 +3845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AA2E22-B916-4D99-A156-90D9CC0DC7BC}">
   <dimension ref="B2:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3476,13 +3854,13 @@
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="18">
+    <row r="2" spans="2:8" ht="36">
       <c r="B2" s="66" t="s">
         <v>149</v>
       </c>
@@ -3653,13 +4031,13 @@
         <v>192</v>
       </c>
       <c r="G10" s="67" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="H10" s="67" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" ht="28.8">
       <c r="B11" s="67"/>
       <c r="C11" s="67"/>
       <c r="D11" s="67" t="s">
@@ -3943,4 +4321,682 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D019D39A-9CB3-4158-86EE-4287843CABA9}">
+  <dimension ref="B1:J25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="28.8">
+      <c r="B1" s="116" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+    </row>
+    <row r="3" spans="2:10" ht="43.2">
+      <c r="B3" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" s="71" t="s">
+        <v>203</v>
+      </c>
+      <c r="F3" s="71" t="s">
+        <v>204</v>
+      </c>
+      <c r="G3" s="71" t="s">
+        <v>205</v>
+      </c>
+      <c r="H3" s="71" t="s">
+        <v>206</v>
+      </c>
+      <c r="I3" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="J3" s="71" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="28.8">
+      <c r="B4" s="70">
+        <v>1</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>211</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="G4" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="73">
+        <v>65</v>
+      </c>
+      <c r="J4" s="73" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="28.8">
+      <c r="B5" s="70">
+        <v>2</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>215</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="G5" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="73">
+        <v>65</v>
+      </c>
+      <c r="J5" s="73" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="28.8">
+      <c r="B6" s="70">
+        <v>3</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="F6" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="G6" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="73">
+        <v>65</v>
+      </c>
+      <c r="J6" s="73" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="28.8">
+      <c r="B7" s="70">
+        <v>4</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="73" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" s="73" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="G7" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="73">
+        <v>65</v>
+      </c>
+      <c r="J7" s="73" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="70"/>
+      <c r="C8" s="117" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="118"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="121"/>
+    </row>
+    <row r="9" spans="2:10" ht="57.6">
+      <c r="B9" s="70">
+        <v>5</v>
+      </c>
+      <c r="C9" s="73" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="73" t="s">
+        <v>224</v>
+      </c>
+      <c r="E9" s="73" t="s">
+        <v>225</v>
+      </c>
+      <c r="F9" s="73" t="s">
+        <v>226</v>
+      </c>
+      <c r="G9" s="73" t="s">
+        <v>227</v>
+      </c>
+      <c r="H9" s="73" t="s">
+        <v>228</v>
+      </c>
+      <c r="I9" s="73">
+        <v>65</v>
+      </c>
+      <c r="J9" s="73" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="57.6">
+      <c r="B10" s="70">
+        <v>6</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>230</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>231</v>
+      </c>
+      <c r="E10" s="73" t="s">
+        <v>232</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>233</v>
+      </c>
+      <c r="G10" s="73" t="s">
+        <v>234</v>
+      </c>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73">
+        <v>65</v>
+      </c>
+      <c r="J10" s="73" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="100.8">
+      <c r="B11" s="70">
+        <v>7</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" s="73" t="s">
+        <v>237</v>
+      </c>
+      <c r="E11" s="73" t="s">
+        <v>238</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>226</v>
+      </c>
+      <c r="G11" s="73" t="s">
+        <v>239</v>
+      </c>
+      <c r="H11" s="73" t="s">
+        <v>240</v>
+      </c>
+      <c r="I11" s="73">
+        <v>65</v>
+      </c>
+      <c r="J11" s="73" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="57.6">
+      <c r="B12" s="70">
+        <v>8</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>242</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>243</v>
+      </c>
+      <c r="E12" s="73" t="s">
+        <v>244</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>226</v>
+      </c>
+      <c r="G12" s="73" t="s">
+        <v>245</v>
+      </c>
+      <c r="H12" s="73" t="s">
+        <v>246</v>
+      </c>
+      <c r="I12" s="73">
+        <v>65</v>
+      </c>
+      <c r="J12" s="73" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="28.8">
+      <c r="B13" s="70">
+        <v>9</v>
+      </c>
+      <c r="C13" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="73" t="s">
+        <v>248</v>
+      </c>
+      <c r="E13" s="73" t="s">
+        <v>249</v>
+      </c>
+      <c r="F13" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="G13" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="73">
+        <v>65</v>
+      </c>
+      <c r="J13" s="73" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="28.8">
+      <c r="B14" s="70">
+        <v>10</v>
+      </c>
+      <c r="C14" s="73" t="s">
+        <v>250</v>
+      </c>
+      <c r="D14" s="73" t="s">
+        <v>251</v>
+      </c>
+      <c r="E14" s="73" t="s">
+        <v>252</v>
+      </c>
+      <c r="F14" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="G14" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="73">
+        <v>65</v>
+      </c>
+      <c r="J14" s="73" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="43.2">
+      <c r="B15" s="70">
+        <v>11</v>
+      </c>
+      <c r="C15" s="73" t="s">
+        <v>253</v>
+      </c>
+      <c r="D15" s="73" t="s">
+        <v>254</v>
+      </c>
+      <c r="E15" s="73" t="s">
+        <v>255</v>
+      </c>
+      <c r="F15" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="73">
+        <v>65</v>
+      </c>
+      <c r="J15" s="73" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="28.8">
+      <c r="B16" s="70">
+        <v>12</v>
+      </c>
+      <c r="C16" s="73" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="73" t="s">
+        <v>256</v>
+      </c>
+      <c r="E16" s="73" t="s">
+        <v>257</v>
+      </c>
+      <c r="F16" s="73" t="s">
+        <v>226</v>
+      </c>
+      <c r="G16" s="73" t="s">
+        <v>258</v>
+      </c>
+      <c r="H16" s="73" t="s">
+        <v>259</v>
+      </c>
+      <c r="I16" s="73">
+        <v>65</v>
+      </c>
+      <c r="J16" s="73" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="43.2">
+      <c r="B17" s="70">
+        <v>13</v>
+      </c>
+      <c r="C17" s="73" t="s">
+        <v>260</v>
+      </c>
+      <c r="D17" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="E17" s="73" t="s">
+        <v>262</v>
+      </c>
+      <c r="F17" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="G17" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="73">
+        <v>65</v>
+      </c>
+      <c r="J17" s="73" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="70"/>
+      <c r="C18" s="117" t="s">
+        <v>263</v>
+      </c>
+      <c r="D18" s="118"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="121"/>
+    </row>
+    <row r="19" spans="2:10" ht="28.8">
+      <c r="B19" s="70">
+        <v>14</v>
+      </c>
+      <c r="C19" s="73" t="s">
+        <v>264</v>
+      </c>
+      <c r="D19" s="73" t="s">
+        <v>265</v>
+      </c>
+      <c r="E19" s="73" t="s">
+        <v>266</v>
+      </c>
+      <c r="F19" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="G19" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="73">
+        <v>65</v>
+      </c>
+      <c r="J19" s="73" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="57.6">
+      <c r="B20" s="70">
+        <v>15</v>
+      </c>
+      <c r="C20" s="73" t="s">
+        <v>267</v>
+      </c>
+      <c r="D20" s="73" t="s">
+        <v>268</v>
+      </c>
+      <c r="E20" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="F20" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="G20" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="73">
+        <v>65</v>
+      </c>
+      <c r="J20" s="73" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="57.6">
+      <c r="B21" s="70">
+        <v>16</v>
+      </c>
+      <c r="C21" s="73" t="s">
+        <v>223</v>
+      </c>
+      <c r="D21" s="73" t="s">
+        <v>224</v>
+      </c>
+      <c r="E21" s="73" t="s">
+        <v>225</v>
+      </c>
+      <c r="F21" s="73" t="s">
+        <v>226</v>
+      </c>
+      <c r="G21" s="73" t="s">
+        <v>227</v>
+      </c>
+      <c r="H21" s="73" t="s">
+        <v>228</v>
+      </c>
+      <c r="I21" s="73">
+        <v>65</v>
+      </c>
+      <c r="J21" s="73" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="28.8">
+      <c r="B22" s="70">
+        <v>17</v>
+      </c>
+      <c r="C22" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="D22" s="73" t="s">
+        <v>271</v>
+      </c>
+      <c r="E22" s="73" t="s">
+        <v>272</v>
+      </c>
+      <c r="F22" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="G22" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="73">
+        <v>65</v>
+      </c>
+      <c r="J22" s="73" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="43.2">
+      <c r="B23" s="70">
+        <v>18</v>
+      </c>
+      <c r="C23" s="73" t="s">
+        <v>273</v>
+      </c>
+      <c r="D23" s="73" t="s">
+        <v>274</v>
+      </c>
+      <c r="E23" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="F23" s="73" t="s">
+        <v>226</v>
+      </c>
+      <c r="G23" s="73" t="s">
+        <v>275</v>
+      </c>
+      <c r="H23" s="73" t="s">
+        <v>276</v>
+      </c>
+      <c r="I23" s="73">
+        <v>65</v>
+      </c>
+      <c r="J23" s="73" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="28.8">
+      <c r="B24" s="70">
+        <v>19</v>
+      </c>
+      <c r="C24" s="73" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="73" t="s">
+        <v>277</v>
+      </c>
+      <c r="E24" s="73" t="s">
+        <v>278</v>
+      </c>
+      <c r="F24" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="G24" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="73">
+        <v>65</v>
+      </c>
+      <c r="J24" s="73" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="43.2">
+      <c r="B25" s="70">
+        <v>20</v>
+      </c>
+      <c r="C25" s="73" t="s">
+        <v>260</v>
+      </c>
+      <c r="D25" s="73" t="s">
+        <v>279</v>
+      </c>
+      <c r="E25" s="73" t="s">
+        <v>262</v>
+      </c>
+      <c r="F25" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="G25" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" s="73">
+        <v>65</v>
+      </c>
+      <c r="J25" s="73" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:J18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/N65_HappyLunch.xlsx
+++ b/N65_HappyLunch.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\apk\git\Happy_Lunch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BBBC58-4D98-487C-A4CC-F3879B5E6C6E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D87E537-0B5B-4903-AC78-B751BCBC2E18}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Profile" sheetId="1" r:id="rId1"/>
+    <sheet name="Github" sheetId="2" r:id="rId2"/>
+    <sheet name="Work" sheetId="3" r:id="rId3"/>
+    <sheet name="function" sheetId="4" r:id="rId4"/>
     <sheet name="UAT" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -1657,6 +1657,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1666,14 +1667,110 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="16" fontId="13" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1684,105 +1781,12 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="16" fontId="13" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="16" fontId="13" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1801,10 +1805,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="13" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
@@ -2086,7 +2086,7 @@
   <dimension ref="B3:H14"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18"/>
@@ -2103,22 +2103,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="25.8">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
     </row>
     <row r="5" spans="2:8" ht="21">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
       <c r="E5" s="78" t="s">
         <v>36</v>
       </c>
@@ -2307,8 +2307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -2322,26 +2322,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="25.8">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
     </row>
     <row r="5" spans="2:8" ht="21">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="62" t="s">
@@ -2968,8 +2968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2987,56 +2987,56 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="25.8">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
     </row>
     <row r="5" spans="1:9" ht="21">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
     </row>
     <row r="7" spans="1:9" ht="18">
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="108" t="s">
+      <c r="C7" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="110" t="s">
+      <c r="D7" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="112" t="s">
+      <c r="E7" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="103" t="s">
+      <c r="F7" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="104"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="114" t="s">
+      <c r="G7" s="90"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="102" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18">
-      <c r="B8" s="107"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="113"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="101"/>
       <c r="F8" s="46" t="s">
         <v>60</v>
       </c>
@@ -3046,13 +3046,13 @@
       <c r="H8" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="115"/>
+      <c r="I8" s="103"/>
     </row>
     <row r="9" spans="1:9" ht="18">
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="97" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="48" t="s">
@@ -3071,8 +3071,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="18">
-      <c r="B10" s="99"/>
-      <c r="C10" s="84"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="50" t="s">
         <v>65</v>
       </c>
@@ -3091,8 +3091,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="18">
-      <c r="B11" s="99"/>
-      <c r="C11" s="84"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="50" t="s">
         <v>68</v>
       </c>
@@ -3109,8 +3109,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="18">
-      <c r="B12" s="99"/>
-      <c r="C12" s="84"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="50" t="s">
         <v>70</v>
       </c>
@@ -3127,8 +3127,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.600000000000001" thickBot="1">
-      <c r="B13" s="100"/>
-      <c r="C13" s="85"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="86"/>
       <c r="D13" s="51" t="s">
         <v>71</v>
       </c>
@@ -3146,10 +3146,10 @@
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1">
       <c r="A14" s="52"/>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="113" t="s">
         <v>93</v>
       </c>
       <c r="D14" s="53" t="s">
@@ -3169,8 +3169,8 @@
     </row>
     <row r="15" spans="1:9" ht="18">
       <c r="A15" s="52"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="81"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="114"/>
       <c r="D15" s="55" t="s">
         <v>128</v>
       </c>
@@ -3188,8 +3188,8 @@
     </row>
     <row r="16" spans="1:9" ht="18">
       <c r="A16" s="52"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="81"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="114"/>
       <c r="D16" s="55" t="s">
         <v>131</v>
       </c>
@@ -3207,8 +3207,8 @@
     </row>
     <row r="17" spans="1:9" ht="18">
       <c r="A17" s="52"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="81"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="114"/>
       <c r="D17" s="55" t="s">
         <v>129</v>
       </c>
@@ -3226,8 +3226,8 @@
     </row>
     <row r="18" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A18" s="52"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="82"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="115"/>
       <c r="D18" s="56" t="s">
         <v>130</v>
       </c>
@@ -3245,10 +3245,10 @@
     </row>
     <row r="19" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A19" s="52"/>
-      <c r="B19" s="92">
+      <c r="B19" s="107">
         <v>43712</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="97" t="s">
         <v>92</v>
       </c>
       <c r="D19" s="48" t="s">
@@ -3268,8 +3268,8 @@
     </row>
     <row r="20" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A20" s="52"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="84"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="85"/>
       <c r="D20" s="50" t="s">
         <v>133</v>
       </c>
@@ -3287,8 +3287,8 @@
     </row>
     <row r="21" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A21" s="52"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="84"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="85"/>
       <c r="D21" s="50" t="s">
         <v>134</v>
       </c>
@@ -3306,8 +3306,8 @@
     </row>
     <row r="22" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A22" s="52"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="84"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="85"/>
       <c r="D22" s="50" t="s">
         <v>76</v>
       </c>
@@ -3325,8 +3325,8 @@
     </row>
     <row r="23" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A23" s="52"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="85"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="86"/>
       <c r="D23" s="51" t="s">
         <v>77</v>
       </c>
@@ -3344,10 +3344,10 @@
     </row>
     <row r="24" spans="1:9" ht="18">
       <c r="A24" s="52"/>
-      <c r="B24" s="95" t="s">
+      <c r="B24" s="110" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="80" t="s">
+      <c r="C24" s="113" t="s">
         <v>103</v>
       </c>
       <c r="D24" s="53" t="s">
@@ -3367,8 +3367,8 @@
     </row>
     <row r="25" spans="1:9" ht="18">
       <c r="A25" s="52"/>
-      <c r="B25" s="96"/>
-      <c r="C25" s="81"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="114"/>
       <c r="D25" s="55" t="s">
         <v>135</v>
       </c>
@@ -3386,8 +3386,8 @@
     </row>
     <row r="26" spans="1:9" ht="18">
       <c r="A26" s="52"/>
-      <c r="B26" s="96"/>
-      <c r="C26" s="81"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="114"/>
       <c r="D26" s="55" t="s">
         <v>136</v>
       </c>
@@ -3405,8 +3405,8 @@
     </row>
     <row r="27" spans="1:9" ht="18">
       <c r="A27" s="52"/>
-      <c r="B27" s="96"/>
-      <c r="C27" s="81"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="114"/>
       <c r="D27" s="55" t="s">
         <v>100</v>
       </c>
@@ -3424,8 +3424,8 @@
     </row>
     <row r="28" spans="1:9" ht="18">
       <c r="A28" s="52"/>
-      <c r="B28" s="97"/>
-      <c r="C28" s="86"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="116"/>
       <c r="D28" s="57" t="s">
         <v>101</v>
       </c>
@@ -3443,10 +3443,10 @@
     </row>
     <row r="29" spans="1:9" ht="18">
       <c r="A29" s="52"/>
-      <c r="B29" s="98" t="s">
+      <c r="B29" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="87">
+      <c r="C29" s="84">
         <v>43588</v>
       </c>
       <c r="D29" s="48" t="s">
@@ -3466,8 +3466,8 @@
     </row>
     <row r="30" spans="1:9" ht="18">
       <c r="A30" s="52"/>
-      <c r="B30" s="99"/>
-      <c r="C30" s="84"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="85"/>
       <c r="D30" s="50" t="s">
         <v>138</v>
       </c>
@@ -3485,8 +3485,8 @@
     </row>
     <row r="31" spans="1:9" ht="18">
       <c r="A31" s="52"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="84"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="85"/>
       <c r="D31" s="50" t="s">
         <v>127</v>
       </c>
@@ -3504,8 +3504,8 @@
     </row>
     <row r="32" spans="1:9" ht="18">
       <c r="A32" s="52"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="84"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="85"/>
       <c r="D32" s="50" t="s">
         <v>140</v>
       </c>
@@ -3523,8 +3523,8 @@
     </row>
     <row r="33" spans="1:9" ht="18">
       <c r="A33" s="52"/>
-      <c r="B33" s="100"/>
-      <c r="C33" s="85"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="86"/>
       <c r="D33" s="51" t="s">
         <v>137</v>
       </c>
@@ -3542,10 +3542,10 @@
     </row>
     <row r="34" spans="1:9" ht="18">
       <c r="A34" s="52"/>
-      <c r="B34" s="95">
+      <c r="B34" s="110">
         <v>43588</v>
       </c>
-      <c r="C34" s="88">
+      <c r="C34" s="117">
         <v>43589</v>
       </c>
       <c r="D34" s="53" t="s">
@@ -3565,8 +3565,8 @@
     </row>
     <row r="35" spans="1:9" ht="18">
       <c r="A35" s="52"/>
-      <c r="B35" s="96"/>
-      <c r="C35" s="81"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="114"/>
       <c r="D35" s="55" t="s">
         <v>143</v>
       </c>
@@ -3584,8 +3584,8 @@
     </row>
     <row r="36" spans="1:9" ht="18">
       <c r="A36" s="52"/>
-      <c r="B36" s="96"/>
-      <c r="C36" s="81"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="114"/>
       <c r="D36" s="55" t="s">
         <v>139</v>
       </c>
@@ -3603,8 +3603,8 @@
     </row>
     <row r="37" spans="1:9" ht="18">
       <c r="A37" s="52"/>
-      <c r="B37" s="96"/>
-      <c r="C37" s="81"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="114"/>
       <c r="D37" s="55" t="s">
         <v>142</v>
       </c>
@@ -3622,8 +3622,8 @@
     </row>
     <row r="38" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A38" s="52"/>
-      <c r="B38" s="97"/>
-      <c r="C38" s="86"/>
+      <c r="B38" s="112"/>
+      <c r="C38" s="116"/>
       <c r="D38" s="57" t="s">
         <v>141</v>
       </c>
@@ -3641,13 +3641,13 @@
     </row>
     <row r="39" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A39" s="52"/>
-      <c r="B39" s="122">
+      <c r="B39" s="81">
         <v>43593</v>
       </c>
-      <c r="C39" s="87">
+      <c r="C39" s="84">
         <v>43599</v>
       </c>
-      <c r="D39" s="123" t="s">
+      <c r="D39" s="74" t="s">
         <v>280</v>
       </c>
       <c r="E39" s="48" t="s">
@@ -3660,9 +3660,9 @@
     </row>
     <row r="40" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A40" s="52"/>
-      <c r="B40" s="99"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="123" t="s">
+      <c r="B40" s="82"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="74" t="s">
         <v>280</v>
       </c>
       <c r="E40" s="50" t="s">
@@ -3675,9 +3675,9 @@
     </row>
     <row r="41" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A41" s="52"/>
-      <c r="B41" s="99"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="123" t="s">
+      <c r="B41" s="82"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="74" t="s">
         <v>280</v>
       </c>
       <c r="E41" s="50" t="s">
@@ -3690,9 +3690,9 @@
     </row>
     <row r="42" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A42" s="52"/>
-      <c r="B42" s="99"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="123" t="s">
+      <c r="B42" s="82"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="74" t="s">
         <v>280</v>
       </c>
       <c r="E42" s="50" t="s">
@@ -3705,9 +3705,9 @@
     </row>
     <row r="43" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A43" s="52"/>
-      <c r="B43" s="100"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="123" t="s">
+      <c r="B43" s="83"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="74" t="s">
         <v>280</v>
       </c>
       <c r="E43" s="51" t="s">
@@ -3813,6 +3813,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C34:C38"/>
     <mergeCell ref="B39:B43"/>
     <mergeCell ref="C39:C43"/>
     <mergeCell ref="B3:I3"/>
@@ -3829,12 +3835,6 @@
     <mergeCell ref="B19:B23"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="C34:C38"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3846,7 +3846,7 @@
   <dimension ref="B2:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4344,17 +4344,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="28.8">
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
     </row>
     <row r="3" spans="2:10" ht="43.2">
       <c r="B3" s="70" t="s">
@@ -4503,16 +4503,16 @@
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="70"/>
-      <c r="C8" s="117" t="s">
+      <c r="C8" s="119" t="s">
         <v>222</v>
       </c>
-      <c r="D8" s="118"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="121"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="123"/>
     </row>
     <row r="9" spans="2:10" ht="57.6">
       <c r="B9" s="70">
@@ -4775,16 +4775,16 @@
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="70"/>
-      <c r="C18" s="117" t="s">
+      <c r="C18" s="119" t="s">
         <v>263</v>
       </c>
-      <c r="D18" s="118"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="121"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="123"/>
     </row>
     <row r="19" spans="2:10" ht="28.8">
       <c r="B19" s="70">

--- a/N65_HappyLunch.xlsx
+++ b/N65_HappyLunch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\apk\git\Happy_Lunch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D87E537-0B5B-4903-AC78-B751BCBC2E18}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA966A40-A1E0-40A0-8E95-472AF7AA5AFF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Profile" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="285">
   <si>
     <t>NHÓM 65: HAPPY LUNCH</t>
   </si>
@@ -471,9 +471,6 @@
     <t>Tình trạng</t>
   </si>
   <si>
-    <t>Chưa hiện thực</t>
-  </si>
-  <si>
     <t>Loại</t>
   </si>
   <si>
@@ -540,9 +537,6 @@
     <t>Git</t>
   </si>
   <si>
-    <t>Chưa đồng bộ</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -868,6 +862,24 @@
   </si>
   <si>
     <t>Một số chức năng (cụ thể ở Sheet4)</t>
+  </si>
+  <si>
+    <t>Đã đồng bộ</t>
+  </si>
+  <si>
+    <t>Hoàn thành</t>
+  </si>
+  <si>
+    <t>Bỏ</t>
+  </si>
+  <si>
+    <t>Chưa</t>
+  </si>
+  <si>
+    <t>Gần xong</t>
+  </si>
+  <si>
+    <t>Chưa fix bug</t>
   </si>
 </sst>
 </file>
@@ -2307,7 +2319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -3648,7 +3660,7 @@
         <v>43599</v>
       </c>
       <c r="D39" s="74" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E39" s="48" t="s">
         <v>9</v>
@@ -3663,7 +3675,7 @@
       <c r="B40" s="82"/>
       <c r="C40" s="85"/>
       <c r="D40" s="74" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E40" s="50" t="s">
         <v>14</v>
@@ -3678,7 +3690,7 @@
       <c r="B41" s="82"/>
       <c r="C41" s="85"/>
       <c r="D41" s="74" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E41" s="50" t="s">
         <v>19</v>
@@ -3693,7 +3705,7 @@
       <c r="B42" s="82"/>
       <c r="C42" s="85"/>
       <c r="D42" s="74" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E42" s="50" t="s">
         <v>24</v>
@@ -3708,7 +3720,7 @@
       <c r="B43" s="83"/>
       <c r="C43" s="86"/>
       <c r="D43" s="74" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E43" s="51" t="s">
         <v>29</v>
@@ -3845,8 +3857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AA2E22-B916-4D99-A156-90D9CC0DC7BC}">
   <dimension ref="B2:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3854,7 +3866,7 @@
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="77.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
@@ -3862,16 +3874,16 @@
   <sheetData>
     <row r="2" spans="2:8" ht="36">
       <c r="B2" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="66" t="s">
         <v>149</v>
-      </c>
-      <c r="C2" s="66" t="s">
-        <v>150</v>
       </c>
       <c r="D2" s="66" t="s">
         <v>145</v>
       </c>
       <c r="E2" s="66" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F2" s="66" t="s">
         <v>146</v>
@@ -3880,385 +3892,363 @@
         <v>147</v>
       </c>
       <c r="H2" s="66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="67" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C3" s="67" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D3" s="67" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E3" s="67"/>
       <c r="F3" s="67" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G3" s="67" t="s">
-        <v>148</v>
+        <v>280</v>
       </c>
       <c r="H3" s="67" t="s">
-        <v>171</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="D4" s="67" t="s">
         <v>152</v>
-      </c>
-      <c r="D4" s="67" t="s">
-        <v>153</v>
       </c>
       <c r="E4" s="67"/>
       <c r="F4" s="67" t="s">
-        <v>191</v>
-      </c>
-      <c r="G4" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="H4" s="67" t="s">
-        <v>171</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="67"/>
       <c r="C5" s="67"/>
       <c r="D5" s="67" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E5" s="67"/>
       <c r="F5" s="67" t="s">
-        <v>191</v>
-      </c>
-      <c r="G5" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="H5" s="67" t="s">
-        <v>171</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="67"/>
       <c r="C6" s="67"/>
       <c r="D6" s="67" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E6" s="67" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F6" s="67" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G6" s="67" t="s">
-        <v>148</v>
+        <v>280</v>
       </c>
       <c r="H6" s="67" t="s">
-        <v>171</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="67"/>
       <c r="C7" s="67" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D7" s="67" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E7" s="67" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F7" s="67" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G7" s="67" t="s">
-        <v>148</v>
+        <v>280</v>
       </c>
       <c r="H7" s="67" t="s">
-        <v>171</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="67"/>
       <c r="C8" s="67"/>
       <c r="D8" s="67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E8" s="67" t="s">
-        <v>162</v>
-      </c>
-      <c r="F8" s="67"/>
+        <v>161</v>
+      </c>
+      <c r="F8" s="67" t="s">
+        <v>190</v>
+      </c>
       <c r="G8" s="67" t="s">
-        <v>148</v>
+        <v>280</v>
       </c>
       <c r="H8" s="67" t="s">
-        <v>171</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="67"/>
       <c r="C9" s="67" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D9" s="67" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="E9" s="67" t="s">
-        <v>161</v>
-      </c>
-      <c r="F9" s="67"/>
+      <c r="F9" s="67" t="s">
+        <v>190</v>
+      </c>
       <c r="G9" s="67" t="s">
-        <v>148</v>
+        <v>280</v>
       </c>
       <c r="H9" s="67" t="s">
-        <v>171</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="67"/>
       <c r="C10" s="67"/>
       <c r="D10" s="67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E10" s="67" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F10" s="67" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G10" s="67" t="s">
-        <v>148</v>
+        <v>280</v>
       </c>
       <c r="H10" s="67" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="28.8">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
       <c r="B11" s="67"/>
       <c r="C11" s="67"/>
       <c r="D11" s="67" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E11" s="67" t="s">
-        <v>177</v>
-      </c>
-      <c r="F11" s="67" t="s">
-        <v>193</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="F11" s="67"/>
       <c r="G11" s="67" t="s">
-        <v>148</v>
+        <v>281</v>
       </c>
       <c r="H11" s="67" t="s">
-        <v>171</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="67"/>
       <c r="C12" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="E12" s="67" t="s">
         <v>165</v>
       </c>
-      <c r="E12" s="67" t="s">
-        <v>166</v>
-      </c>
       <c r="F12" s="67" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G12" s="67" t="s">
-        <v>148</v>
+        <v>280</v>
       </c>
       <c r="H12" s="67" t="s">
-        <v>171</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="67"/>
       <c r="C13" s="67"/>
       <c r="D13" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="E13" s="67" t="s">
-        <v>168</v>
-      </c>
       <c r="F13" s="67" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G13" s="67" t="s">
-        <v>148</v>
+        <v>280</v>
       </c>
       <c r="H13" s="67" t="s">
-        <v>171</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="67"/>
       <c r="C14" s="67"/>
       <c r="D14" s="67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E14" s="67" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F14" s="67" t="s">
-        <v>196</v>
-      </c>
-      <c r="G14" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="H14" s="67" t="s">
-        <v>171</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="67" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C15" s="67" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D15" s="67" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E15" s="67" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F15" s="67" t="s">
-        <v>193</v>
-      </c>
-      <c r="G15" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="H15" s="67" t="s">
-        <v>171</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="67"/>
       <c r="C16" s="67" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D16" s="67" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E16" s="67" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F16" s="67" t="s">
-        <v>191</v>
-      </c>
-      <c r="G16" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="H16" s="67" t="s">
-        <v>171</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
       <c r="D17" s="67" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E17" s="67" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F17" s="67" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G17" s="67" t="s">
-        <v>148</v>
+        <v>280</v>
       </c>
       <c r="H17" s="67" t="s">
-        <v>171</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="67"/>
       <c r="C18" s="67"/>
       <c r="D18" s="67" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E18" s="67" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F18" s="67" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G18" s="67" t="s">
-        <v>148</v>
+        <v>283</v>
       </c>
       <c r="H18" s="67" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="28.8">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="15" customHeight="1">
       <c r="B19" s="67"/>
       <c r="C19" s="67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D19" s="67" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E19" s="67" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F19" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="G19" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="H19" s="67" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="28.8">
+        <v>195</v>
+      </c>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+    </row>
+    <row r="20" spans="2:8">
       <c r="B20" s="67"/>
       <c r="C20" s="67"/>
       <c r="D20" s="67" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E20" s="67" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F20" s="68" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G20" s="67" t="s">
-        <v>148</v>
+        <v>284</v>
       </c>
       <c r="H20" s="67" t="s">
-        <v>171</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="67" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C21" s="67"/>
       <c r="D21" s="67"/>
       <c r="E21" s="67"/>
       <c r="F21" s="67" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G21" s="67"/>
       <c r="H21" s="67"/>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="69" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="69" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
@@ -4345,7 +4335,7 @@
   <sheetData>
     <row r="1" spans="2:10" ht="28.8">
       <c r="B1" s="118" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C1" s="118"/>
       <c r="D1" s="118"/>
@@ -4361,28 +4351,28 @@
         <v>2</v>
       </c>
       <c r="C3" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" s="71" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="F3" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="G3" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="H3" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="I3" s="72" t="s">
         <v>205</v>
       </c>
-      <c r="H3" s="71" t="s">
+      <c r="J3" s="71" t="s">
         <v>206</v>
-      </c>
-      <c r="I3" s="72" t="s">
-        <v>207</v>
-      </c>
-      <c r="J3" s="71" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="28.8">
@@ -4390,16 +4380,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="73" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="73" t="s">
         <v>209</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="F4" s="73" t="s">
         <v>210</v>
-      </c>
-      <c r="E4" s="73" t="s">
-        <v>211</v>
-      </c>
-      <c r="F4" s="73" t="s">
-        <v>212</v>
       </c>
       <c r="G4" s="73" t="s">
         <v>44</v>
@@ -4411,7 +4401,7 @@
         <v>65</v>
       </c>
       <c r="J4" s="73" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="28.8">
@@ -4419,16 +4409,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="73" t="s">
         <v>214</v>
       </c>
-      <c r="D5" s="73" t="s">
-        <v>215</v>
-      </c>
-      <c r="E5" s="73" t="s">
-        <v>216</v>
-      </c>
       <c r="F5" s="73" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G5" s="73" t="s">
         <v>44</v>
@@ -4440,7 +4430,7 @@
         <v>65</v>
       </c>
       <c r="J5" s="73" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="28.8">
@@ -4448,16 +4438,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="73" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D6" s="73" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E6" s="73" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F6" s="73" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G6" s="73" t="s">
         <v>44</v>
@@ -4469,7 +4459,7 @@
         <v>65</v>
       </c>
       <c r="J6" s="73" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="28.8">
@@ -4477,16 +4467,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="73" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="73" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="D7" s="73" t="s">
-        <v>220</v>
-      </c>
-      <c r="E7" s="73" t="s">
-        <v>221</v>
-      </c>
       <c r="F7" s="73" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G7" s="73" t="s">
         <v>44</v>
@@ -4498,13 +4488,13 @@
         <v>65</v>
       </c>
       <c r="J7" s="73" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="70"/>
       <c r="C8" s="119" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D8" s="120"/>
       <c r="E8" s="121"/>
@@ -4519,28 +4509,28 @@
         <v>5</v>
       </c>
       <c r="C9" s="73" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9" s="73" t="s">
+        <v>222</v>
+      </c>
+      <c r="E9" s="73" t="s">
         <v>223</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="F9" s="73" t="s">
         <v>224</v>
       </c>
-      <c r="E9" s="73" t="s">
+      <c r="G9" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="F9" s="73" t="s">
+      <c r="H9" s="73" t="s">
         <v>226</v>
-      </c>
-      <c r="G9" s="73" t="s">
-        <v>227</v>
-      </c>
-      <c r="H9" s="73" t="s">
-        <v>228</v>
       </c>
       <c r="I9" s="73">
         <v>65</v>
       </c>
       <c r="J9" s="73" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="57.6">
@@ -4548,26 +4538,26 @@
         <v>6</v>
       </c>
       <c r="C10" s="73" t="s">
+        <v>228</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>229</v>
+      </c>
+      <c r="E10" s="73" t="s">
         <v>230</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="F10" s="73" t="s">
         <v>231</v>
       </c>
-      <c r="E10" s="73" t="s">
+      <c r="G10" s="73" t="s">
         <v>232</v>
-      </c>
-      <c r="F10" s="73" t="s">
-        <v>233</v>
-      </c>
-      <c r="G10" s="73" t="s">
-        <v>234</v>
       </c>
       <c r="H10" s="73"/>
       <c r="I10" s="73">
         <v>65</v>
       </c>
       <c r="J10" s="73" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="100.8">
@@ -4575,28 +4565,28 @@
         <v>7</v>
       </c>
       <c r="C11" s="73" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" s="73" t="s">
+        <v>235</v>
+      </c>
+      <c r="E11" s="73" t="s">
         <v>236</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="F11" s="73" t="s">
+        <v>224</v>
+      </c>
+      <c r="G11" s="73" t="s">
         <v>237</v>
       </c>
-      <c r="E11" s="73" t="s">
+      <c r="H11" s="73" t="s">
         <v>238</v>
-      </c>
-      <c r="F11" s="73" t="s">
-        <v>226</v>
-      </c>
-      <c r="G11" s="73" t="s">
-        <v>239</v>
-      </c>
-      <c r="H11" s="73" t="s">
-        <v>240</v>
       </c>
       <c r="I11" s="73">
         <v>65</v>
       </c>
       <c r="J11" s="73" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="57.6">
@@ -4604,28 +4594,28 @@
         <v>8</v>
       </c>
       <c r="C12" s="73" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>241</v>
+      </c>
+      <c r="E12" s="73" t="s">
         <v>242</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="F12" s="73" t="s">
+        <v>224</v>
+      </c>
+      <c r="G12" s="73" t="s">
         <v>243</v>
       </c>
-      <c r="E12" s="73" t="s">
+      <c r="H12" s="73" t="s">
         <v>244</v>
-      </c>
-      <c r="F12" s="73" t="s">
-        <v>226</v>
-      </c>
-      <c r="G12" s="73" t="s">
-        <v>245</v>
-      </c>
-      <c r="H12" s="73" t="s">
-        <v>246</v>
       </c>
       <c r="I12" s="73">
         <v>65</v>
       </c>
       <c r="J12" s="73" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="28.8">
@@ -4633,16 +4623,16 @@
         <v>9</v>
       </c>
       <c r="C13" s="73" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D13" s="73" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E13" s="73" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F13" s="73" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G13" s="73" t="s">
         <v>44</v>
@@ -4654,7 +4644,7 @@
         <v>65</v>
       </c>
       <c r="J13" s="73" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="28.8">
@@ -4662,16 +4652,16 @@
         <v>10</v>
       </c>
       <c r="C14" s="73" t="s">
+        <v>248</v>
+      </c>
+      <c r="D14" s="73" t="s">
+        <v>249</v>
+      </c>
+      <c r="E14" s="73" t="s">
         <v>250</v>
       </c>
-      <c r="D14" s="73" t="s">
-        <v>251</v>
-      </c>
-      <c r="E14" s="73" t="s">
-        <v>252</v>
-      </c>
       <c r="F14" s="73" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G14" s="73" t="s">
         <v>44</v>
@@ -4683,7 +4673,7 @@
         <v>65</v>
       </c>
       <c r="J14" s="73" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="43.2">
@@ -4691,16 +4681,16 @@
         <v>11</v>
       </c>
       <c r="C15" s="73" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" s="73" t="s">
+        <v>252</v>
+      </c>
+      <c r="E15" s="73" t="s">
         <v>253</v>
       </c>
-      <c r="D15" s="73" t="s">
-        <v>254</v>
-      </c>
-      <c r="E15" s="73" t="s">
-        <v>255</v>
-      </c>
       <c r="F15" s="73" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G15" s="73" t="s">
         <v>44</v>
@@ -4712,7 +4702,7 @@
         <v>65</v>
       </c>
       <c r="J15" s="73" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="28.8">
@@ -4720,28 +4710,28 @@
         <v>12</v>
       </c>
       <c r="C16" s="73" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D16" s="73" t="s">
+        <v>254</v>
+      </c>
+      <c r="E16" s="73" t="s">
+        <v>255</v>
+      </c>
+      <c r="F16" s="73" t="s">
+        <v>224</v>
+      </c>
+      <c r="G16" s="73" t="s">
         <v>256</v>
       </c>
-      <c r="E16" s="73" t="s">
+      <c r="H16" s="73" t="s">
         <v>257</v>
-      </c>
-      <c r="F16" s="73" t="s">
-        <v>226</v>
-      </c>
-      <c r="G16" s="73" t="s">
-        <v>258</v>
-      </c>
-      <c r="H16" s="73" t="s">
-        <v>259</v>
       </c>
       <c r="I16" s="73">
         <v>65</v>
       </c>
       <c r="J16" s="73" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="43.2">
@@ -4749,16 +4739,16 @@
         <v>13</v>
       </c>
       <c r="C17" s="73" t="s">
+        <v>258</v>
+      </c>
+      <c r="D17" s="73" t="s">
+        <v>259</v>
+      </c>
+      <c r="E17" s="73" t="s">
         <v>260</v>
       </c>
-      <c r="D17" s="73" t="s">
-        <v>261</v>
-      </c>
-      <c r="E17" s="73" t="s">
-        <v>262</v>
-      </c>
       <c r="F17" s="73" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G17" s="73" t="s">
         <v>44</v>
@@ -4770,13 +4760,13 @@
         <v>65</v>
       </c>
       <c r="J17" s="73" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="70"/>
       <c r="C18" s="119" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D18" s="120"/>
       <c r="E18" s="121"/>
@@ -4791,16 +4781,16 @@
         <v>14</v>
       </c>
       <c r="C19" s="73" t="s">
+        <v>262</v>
+      </c>
+      <c r="D19" s="73" t="s">
+        <v>263</v>
+      </c>
+      <c r="E19" s="73" t="s">
         <v>264</v>
       </c>
-      <c r="D19" s="73" t="s">
-        <v>265</v>
-      </c>
-      <c r="E19" s="73" t="s">
-        <v>266</v>
-      </c>
       <c r="F19" s="73" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G19" s="73" t="s">
         <v>44</v>
@@ -4812,7 +4802,7 @@
         <v>65</v>
       </c>
       <c r="J19" s="73" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="57.6">
@@ -4820,16 +4810,16 @@
         <v>15</v>
       </c>
       <c r="C20" s="73" t="s">
+        <v>265</v>
+      </c>
+      <c r="D20" s="73" t="s">
+        <v>266</v>
+      </c>
+      <c r="E20" s="73" t="s">
         <v>267</v>
       </c>
-      <c r="D20" s="73" t="s">
-        <v>268</v>
-      </c>
-      <c r="E20" s="73" t="s">
-        <v>269</v>
-      </c>
       <c r="F20" s="73" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G20" s="73" t="s">
         <v>44</v>
@@ -4841,7 +4831,7 @@
         <v>65</v>
       </c>
       <c r="J20" s="73" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="57.6">
@@ -4849,28 +4839,28 @@
         <v>16</v>
       </c>
       <c r="C21" s="73" t="s">
+        <v>221</v>
+      </c>
+      <c r="D21" s="73" t="s">
+        <v>222</v>
+      </c>
+      <c r="E21" s="73" t="s">
         <v>223</v>
       </c>
-      <c r="D21" s="73" t="s">
+      <c r="F21" s="73" t="s">
         <v>224</v>
       </c>
-      <c r="E21" s="73" t="s">
+      <c r="G21" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="F21" s="73" t="s">
+      <c r="H21" s="73" t="s">
         <v>226</v>
-      </c>
-      <c r="G21" s="73" t="s">
-        <v>227</v>
-      </c>
-      <c r="H21" s="73" t="s">
-        <v>228</v>
       </c>
       <c r="I21" s="73">
         <v>65</v>
       </c>
       <c r="J21" s="73" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="28.8">
@@ -4878,16 +4868,16 @@
         <v>17</v>
       </c>
       <c r="C22" s="73" t="s">
+        <v>268</v>
+      </c>
+      <c r="D22" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="E22" s="73" t="s">
         <v>270</v>
       </c>
-      <c r="D22" s="73" t="s">
-        <v>271</v>
-      </c>
-      <c r="E22" s="73" t="s">
-        <v>272</v>
-      </c>
       <c r="F22" s="73" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G22" s="73" t="s">
         <v>44</v>
@@ -4899,7 +4889,7 @@
         <v>65</v>
       </c>
       <c r="J22" s="73" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="43.2">
@@ -4907,28 +4897,28 @@
         <v>18</v>
       </c>
       <c r="C23" s="73" t="s">
+        <v>271</v>
+      </c>
+      <c r="D23" s="73" t="s">
+        <v>272</v>
+      </c>
+      <c r="E23" s="73" t="s">
+        <v>214</v>
+      </c>
+      <c r="F23" s="73" t="s">
+        <v>224</v>
+      </c>
+      <c r="G23" s="73" t="s">
         <v>273</v>
       </c>
-      <c r="D23" s="73" t="s">
+      <c r="H23" s="73" t="s">
         <v>274</v>
-      </c>
-      <c r="E23" s="73" t="s">
-        <v>216</v>
-      </c>
-      <c r="F23" s="73" t="s">
-        <v>226</v>
-      </c>
-      <c r="G23" s="73" t="s">
-        <v>275</v>
-      </c>
-      <c r="H23" s="73" t="s">
-        <v>276</v>
       </c>
       <c r="I23" s="73">
         <v>65</v>
       </c>
       <c r="J23" s="73" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="28.8">
@@ -4936,16 +4926,16 @@
         <v>19</v>
       </c>
       <c r="C24" s="73" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D24" s="73" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E24" s="73" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F24" s="73" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G24" s="73" t="s">
         <v>44</v>
@@ -4957,7 +4947,7 @@
         <v>65</v>
       </c>
       <c r="J24" s="73" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="43.2">
@@ -4965,16 +4955,16 @@
         <v>20</v>
       </c>
       <c r="C25" s="73" t="s">
+        <v>258</v>
+      </c>
+      <c r="D25" s="73" t="s">
+        <v>277</v>
+      </c>
+      <c r="E25" s="73" t="s">
         <v>260</v>
       </c>
-      <c r="D25" s="73" t="s">
-        <v>279</v>
-      </c>
-      <c r="E25" s="73" t="s">
-        <v>262</v>
-      </c>
       <c r="F25" s="73" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G25" s="73" t="s">
         <v>44</v>
@@ -4986,7 +4976,7 @@
         <v>65</v>
       </c>
       <c r="J25" s="73" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/N65_HappyLunch.xlsx
+++ b/N65_HappyLunch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\apk\git\Happy_Lunch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA966A40-A1E0-40A0-8E95-472AF7AA5AFF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F163088B-DFAE-4F8A-B2F7-4A7EEE213FFE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Profile" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="294">
   <si>
     <t>NHÓM 65: HAPPY LUNCH</t>
   </si>
@@ -880,6 +880,33 @@
   </si>
   <si>
     <t>Chưa fix bug</t>
+  </si>
+  <si>
+    <t>quên mật khẩu</t>
+  </si>
+  <si>
+    <t>Tính năng quên mật khẩu</t>
+  </si>
+  <si>
+    <t>Thêm tính năng order</t>
+  </si>
+  <si>
+    <t>Chưa xuất bill lên database</t>
+  </si>
+  <si>
+    <t>Tính năng order</t>
+  </si>
+  <si>
+    <t>Tìm kiếm trong homepage</t>
+  </si>
+  <si>
+    <t>Chưa hoàn thiện</t>
+  </si>
+  <si>
+    <t>Hoàn thiện order lên DB</t>
+  </si>
+  <si>
+    <t>Đã xuất bill lên database</t>
   </si>
 </sst>
 </file>
@@ -1536,7 +1563,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1641,9 +1668,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1688,6 +1712,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="16" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="16" fontId="13" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1697,15 +1757,6 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="16" fontId="13" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1736,9 +1787,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1773,30 +1821,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2115,28 +2139,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="25.8">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="5" spans="2:8" ht="21">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="78" t="s">
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
     </row>
     <row r="7" spans="2:8" ht="21">
       <c r="B7" s="2" t="s">
@@ -2319,13 +2343,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="5.5546875" style="65" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" style="64" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" style="37" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" customWidth="1"/>
@@ -2334,37 +2358,37 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="25.8">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="5" spans="2:8" ht="21">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
     </row>
     <row r="9" spans="2:8" ht="21">
       <c r="B9" s="63" t="s">
@@ -2900,67 +2924,121 @@
       <c r="B35" s="6">
         <v>26</v>
       </c>
-      <c r="C35" s="34"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
+      <c r="C35" s="38">
+        <v>43601</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="6"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+      <c r="B36" s="6">
+        <v>27</v>
+      </c>
+      <c r="C36" s="38">
+        <v>43601</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="64"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
+      <c r="B37" s="6">
+        <v>28</v>
+      </c>
+      <c r="C37" s="38">
+        <v>43601</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="64"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
+      <c r="B38" s="6">
+        <v>29</v>
+      </c>
+      <c r="C38" s="38">
+        <v>43602</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="64"/>
+      <c r="B39" s="6">
+        <v>30</v>
+      </c>
       <c r="C39" s="34"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="64"/>
+      <c r="B40" s="6">
+        <v>31</v>
+      </c>
       <c r="C40" s="34"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="64"/>
+      <c r="B41" s="6">
+        <v>32</v>
+      </c>
       <c r="C41" s="34"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="64"/>
+      <c r="B42" s="6">
+        <v>33</v>
+      </c>
       <c r="C42" s="34"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2999,56 +3077,56 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="25.8">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
     </row>
     <row r="5" spans="1:9" ht="21">
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
     </row>
     <row r="7" spans="1:9" ht="18">
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="98" t="s">
+      <c r="D7" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="100" t="s">
+      <c r="E7" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="89" t="s">
+      <c r="F7" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="90"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="102" t="s">
+      <c r="G7" s="98"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="109" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18">
-      <c r="B8" s="93"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="101"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="108"/>
       <c r="F8" s="46" t="s">
         <v>60</v>
       </c>
@@ -3058,13 +3136,13 @@
       <c r="H8" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="103"/>
+      <c r="I8" s="110"/>
     </row>
     <row r="9" spans="1:9" ht="18">
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="97" t="s">
+      <c r="C9" s="86" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="48" t="s">
@@ -3083,8 +3161,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="18">
-      <c r="B10" s="82"/>
-      <c r="C10" s="85"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="87"/>
       <c r="D10" s="50" t="s">
         <v>65</v>
       </c>
@@ -3103,8 +3181,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="18">
-      <c r="B11" s="82"/>
-      <c r="C11" s="85"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="87"/>
       <c r="D11" s="50" t="s">
         <v>68</v>
       </c>
@@ -3121,8 +3199,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="18">
-      <c r="B12" s="82"/>
-      <c r="C12" s="85"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="87"/>
       <c r="D12" s="50" t="s">
         <v>70</v>
       </c>
@@ -3139,8 +3217,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.600000000000001" thickBot="1">
-      <c r="B13" s="83"/>
-      <c r="C13" s="86"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="88"/>
       <c r="D13" s="51" t="s">
         <v>71</v>
       </c>
@@ -3158,10 +3236,10 @@
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1">
       <c r="A14" s="52"/>
-      <c r="B14" s="104" t="s">
+      <c r="B14" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="113" t="s">
+      <c r="C14" s="83" t="s">
         <v>93</v>
       </c>
       <c r="D14" s="53" t="s">
@@ -3181,8 +3259,8 @@
     </row>
     <row r="15" spans="1:9" ht="18">
       <c r="A15" s="52"/>
-      <c r="B15" s="105"/>
-      <c r="C15" s="114"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="84"/>
       <c r="D15" s="55" t="s">
         <v>128</v>
       </c>
@@ -3200,8 +3278,8 @@
     </row>
     <row r="16" spans="1:9" ht="18">
       <c r="A16" s="52"/>
-      <c r="B16" s="105"/>
-      <c r="C16" s="114"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="84"/>
       <c r="D16" s="55" t="s">
         <v>131</v>
       </c>
@@ -3219,8 +3297,8 @@
     </row>
     <row r="17" spans="1:9" ht="18">
       <c r="A17" s="52"/>
-      <c r="B17" s="105"/>
-      <c r="C17" s="114"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="84"/>
       <c r="D17" s="55" t="s">
         <v>129</v>
       </c>
@@ -3238,8 +3316,8 @@
     </row>
     <row r="18" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A18" s="52"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="115"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="85"/>
       <c r="D18" s="56" t="s">
         <v>130</v>
       </c>
@@ -3257,10 +3335,10 @@
     </row>
     <row r="19" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A19" s="52"/>
-      <c r="B19" s="107">
+      <c r="B19" s="114">
         <v>43712</v>
       </c>
-      <c r="C19" s="97" t="s">
+      <c r="C19" s="86" t="s">
         <v>92</v>
       </c>
       <c r="D19" s="48" t="s">
@@ -3280,8 +3358,8 @@
     </row>
     <row r="20" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A20" s="52"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="85"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="87"/>
       <c r="D20" s="50" t="s">
         <v>133</v>
       </c>
@@ -3299,8 +3377,8 @@
     </row>
     <row r="21" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A21" s="52"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="85"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="87"/>
       <c r="D21" s="50" t="s">
         <v>134</v>
       </c>
@@ -3318,8 +3396,8 @@
     </row>
     <row r="22" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A22" s="52"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="85"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="50" t="s">
         <v>76</v>
       </c>
@@ -3337,8 +3415,8 @@
     </row>
     <row r="23" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A23" s="52"/>
-      <c r="B23" s="109"/>
-      <c r="C23" s="86"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="88"/>
       <c r="D23" s="51" t="s">
         <v>77</v>
       </c>
@@ -3356,10 +3434,10 @@
     </row>
     <row r="24" spans="1:9" ht="18">
       <c r="A24" s="52"/>
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="113" t="s">
+      <c r="C24" s="83" t="s">
         <v>103</v>
       </c>
       <c r="D24" s="53" t="s">
@@ -3379,8 +3457,8 @@
     </row>
     <row r="25" spans="1:9" ht="18">
       <c r="A25" s="52"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="114"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="84"/>
       <c r="D25" s="55" t="s">
         <v>135</v>
       </c>
@@ -3398,8 +3476,8 @@
     </row>
     <row r="26" spans="1:9" ht="18">
       <c r="A26" s="52"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="114"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="84"/>
       <c r="D26" s="55" t="s">
         <v>136</v>
       </c>
@@ -3417,8 +3495,8 @@
     </row>
     <row r="27" spans="1:9" ht="18">
       <c r="A27" s="52"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="114"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="84"/>
       <c r="D27" s="55" t="s">
         <v>100</v>
       </c>
@@ -3436,8 +3514,8 @@
     </row>
     <row r="28" spans="1:9" ht="18">
       <c r="A28" s="52"/>
-      <c r="B28" s="112"/>
-      <c r="C28" s="116"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="89"/>
       <c r="D28" s="57" t="s">
         <v>101</v>
       </c>
@@ -3455,10 +3533,10 @@
     </row>
     <row r="29" spans="1:9" ht="18">
       <c r="A29" s="52"/>
-      <c r="B29" s="94" t="s">
+      <c r="B29" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="84">
+      <c r="C29" s="90">
         <v>43588</v>
       </c>
       <c r="D29" s="48" t="s">
@@ -3478,8 +3556,8 @@
     </row>
     <row r="30" spans="1:9" ht="18">
       <c r="A30" s="52"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="85"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="87"/>
       <c r="D30" s="50" t="s">
         <v>138</v>
       </c>
@@ -3497,8 +3575,8 @@
     </row>
     <row r="31" spans="1:9" ht="18">
       <c r="A31" s="52"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="85"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="87"/>
       <c r="D31" s="50" t="s">
         <v>127</v>
       </c>
@@ -3516,8 +3594,8 @@
     </row>
     <row r="32" spans="1:9" ht="18">
       <c r="A32" s="52"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="85"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="87"/>
       <c r="D32" s="50" t="s">
         <v>140</v>
       </c>
@@ -3535,8 +3613,8 @@
     </row>
     <row r="33" spans="1:9" ht="18">
       <c r="A33" s="52"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="86"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="88"/>
       <c r="D33" s="51" t="s">
         <v>137</v>
       </c>
@@ -3554,10 +3632,10 @@
     </row>
     <row r="34" spans="1:9" ht="18">
       <c r="A34" s="52"/>
-      <c r="B34" s="110">
+      <c r="B34" s="80">
         <v>43588</v>
       </c>
-      <c r="C34" s="117">
+      <c r="C34" s="91">
         <v>43589</v>
       </c>
       <c r="D34" s="53" t="s">
@@ -3577,8 +3655,8 @@
     </row>
     <row r="35" spans="1:9" ht="18">
       <c r="A35" s="52"/>
-      <c r="B35" s="111"/>
-      <c r="C35" s="114"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="84"/>
       <c r="D35" s="55" t="s">
         <v>143</v>
       </c>
@@ -3596,8 +3674,8 @@
     </row>
     <row r="36" spans="1:9" ht="18">
       <c r="A36" s="52"/>
-      <c r="B36" s="111"/>
-      <c r="C36" s="114"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="84"/>
       <c r="D36" s="55" t="s">
         <v>139</v>
       </c>
@@ -3615,8 +3693,8 @@
     </row>
     <row r="37" spans="1:9" ht="18">
       <c r="A37" s="52"/>
-      <c r="B37" s="111"/>
-      <c r="C37" s="114"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="84"/>
       <c r="D37" s="55" t="s">
         <v>142</v>
       </c>
@@ -3634,8 +3712,8 @@
     </row>
     <row r="38" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A38" s="52"/>
-      <c r="B38" s="112"/>
-      <c r="C38" s="116"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="89"/>
       <c r="D38" s="57" t="s">
         <v>141</v>
       </c>
@@ -3653,13 +3731,13 @@
     </row>
     <row r="39" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A39" s="52"/>
-      <c r="B39" s="81">
+      <c r="B39" s="92">
         <v>43593</v>
       </c>
-      <c r="C39" s="84">
+      <c r="C39" s="90">
         <v>43599</v>
       </c>
-      <c r="D39" s="74" t="s">
+      <c r="D39" s="73" t="s">
         <v>278</v>
       </c>
       <c r="E39" s="48" t="s">
@@ -3672,9 +3750,9 @@
     </row>
     <row r="40" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A40" s="52"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="74" t="s">
+      <c r="B40" s="93"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="73" t="s">
         <v>278</v>
       </c>
       <c r="E40" s="50" t="s">
@@ -3687,9 +3765,9 @@
     </row>
     <row r="41" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A41" s="52"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="74" t="s">
+      <c r="B41" s="93"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="73" t="s">
         <v>278</v>
       </c>
       <c r="E41" s="50" t="s">
@@ -3702,9 +3780,9 @@
     </row>
     <row r="42" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A42" s="52"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="74" t="s">
+      <c r="B42" s="93"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="73" t="s">
         <v>278</v>
       </c>
       <c r="E42" s="50" t="s">
@@ -3717,9 +3795,9 @@
     </row>
     <row r="43" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A43" s="52"/>
-      <c r="B43" s="83"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="74" t="s">
+      <c r="B43" s="94"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="73" t="s">
         <v>278</v>
       </c>
       <c r="E43" s="51" t="s">
@@ -3825,12 +3903,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="C34:C38"/>
     <mergeCell ref="B39:B43"/>
     <mergeCell ref="C39:C43"/>
     <mergeCell ref="B3:I3"/>
@@ -3847,6 +3919,12 @@
     <mergeCell ref="B19:B23"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C34:C38"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3857,7 +3935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AA2E22-B916-4D99-A156-90D9CC0DC7BC}">
   <dimension ref="B2:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -3873,381 +3951,381 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="36">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="H2" s="66" t="s">
+      <c r="H2" s="65" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67" t="s">
+      <c r="E3" s="66"/>
+      <c r="F3" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="G3" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="H3" s="67" t="s">
+      <c r="H3" s="66" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67" t="s">
+      <c r="E4" s="66"/>
+      <c r="F4" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67" t="s">
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67" t="s">
+      <c r="E5" s="66"/>
+      <c r="F5" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67" t="s">
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="E6" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="F6" s="67" t="s">
+      <c r="F6" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="G6" s="67" t="s">
+      <c r="G6" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="H6" s="67" t="s">
+      <c r="H6" s="66" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="67"/>
-      <c r="C7" s="67" t="s">
+      <c r="B7" s="66"/>
+      <c r="C7" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="G7" s="67" t="s">
+      <c r="G7" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="H7" s="67" t="s">
+      <c r="H7" s="66" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67" t="s">
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="F8" s="67" t="s">
+      <c r="F8" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="G8" s="67" t="s">
+      <c r="G8" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="H8" s="67" t="s">
+      <c r="H8" s="66" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="67"/>
-      <c r="C9" s="67" t="s">
+      <c r="B9" s="66"/>
+      <c r="C9" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="E9" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="F9" s="67" t="s">
+      <c r="F9" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="G9" s="67" t="s">
+      <c r="G9" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="H9" s="67" t="s">
+      <c r="H9" s="66" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67" t="s">
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="F10" s="67" t="s">
+      <c r="F10" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="G10" s="67" t="s">
+      <c r="G10" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="H10" s="67" t="s">
+      <c r="H10" s="66" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67" t="s">
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="E11" s="67" t="s">
+      <c r="E11" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67" t="s">
+      <c r="F11" s="66"/>
+      <c r="G11" s="66" t="s">
         <v>281</v>
       </c>
-      <c r="H11" s="67" t="s">
+      <c r="H11" s="66" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="67"/>
-      <c r="C12" s="67" t="s">
+      <c r="B12" s="66"/>
+      <c r="C12" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="E12" s="67" t="s">
+      <c r="E12" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="F12" s="67" t="s">
+      <c r="F12" s="66" t="s">
         <v>192</v>
       </c>
-      <c r="G12" s="67" t="s">
+      <c r="G12" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="H12" s="67" t="s">
+      <c r="H12" s="66" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67" t="s">
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="E13" s="67" t="s">
+      <c r="E13" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="F13" s="67" t="s">
+      <c r="F13" s="66" t="s">
         <v>192</v>
       </c>
-      <c r="G13" s="67" t="s">
+      <c r="G13" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="H13" s="67" t="s">
+      <c r="H13" s="66" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67" t="s">
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="E14" s="67" t="s">
+      <c r="E14" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="F14" s="67" t="s">
+      <c r="F14" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="66" t="s">
         <v>173</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="67" t="s">
+      <c r="E15" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="F15" s="67" t="s">
+      <c r="F15" s="66" t="s">
         <v>191</v>
       </c>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="67"/>
-      <c r="C16" s="67" t="s">
+      <c r="B16" s="66"/>
+      <c r="C16" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="D16" s="67" t="s">
+      <c r="D16" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="E16" s="67" t="s">
+      <c r="E16" s="66" t="s">
         <v>179</v>
       </c>
-      <c r="F16" s="67" t="s">
+      <c r="F16" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67" t="s">
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66" t="s">
         <v>180</v>
       </c>
-      <c r="E17" s="67" t="s">
+      <c r="E17" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="F17" s="67" t="s">
+      <c r="F17" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="G17" s="67" t="s">
+      <c r="G17" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="H17" s="67" t="s">
+      <c r="H17" s="66" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67" t="s">
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66" t="s">
         <v>183</v>
       </c>
-      <c r="E18" s="67" t="s">
+      <c r="E18" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="F18" s="67" t="s">
+      <c r="F18" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="G18" s="67" t="s">
+      <c r="G18" s="66" t="s">
         <v>283</v>
       </c>
-      <c r="H18" s="67" t="s">
+      <c r="H18" s="66" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15" customHeight="1">
-      <c r="B19" s="67"/>
-      <c r="C19" s="67" t="s">
+      <c r="B19" s="66"/>
+      <c r="C19" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="67" t="s">
+      <c r="D19" s="66" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="67" t="s">
+      <c r="E19" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="F19" s="67" t="s">
+      <c r="F19" s="66" t="s">
         <v>195</v>
       </c>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67" t="s">
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66" t="s">
         <v>187</v>
       </c>
-      <c r="E20" s="67" t="s">
+      <c r="E20" s="66" t="s">
         <v>188</v>
       </c>
-      <c r="F20" s="68" t="s">
+      <c r="F20" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="G20" s="67" t="s">
+      <c r="G20" s="66" t="s">
         <v>284</v>
       </c>
-      <c r="H20" s="67" t="s">
+      <c r="H20" s="66" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67" t="s">
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66" t="s">
         <v>195</v>
       </c>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="68" t="s">
         <v>197</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
-      <c r="F22" s="69" t="s">
+      <c r="F22" s="68" t="s">
         <v>192</v>
       </c>
       <c r="G22" s="15"/>
@@ -4334,648 +4412,648 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="28.8">
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
     </row>
     <row r="3" spans="2:10" ht="43.2">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="H3" s="71" t="s">
+      <c r="H3" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="72" t="s">
+      <c r="I3" s="71" t="s">
         <v>205</v>
       </c>
-      <c r="J3" s="71" t="s">
+      <c r="J3" s="70" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="28.8">
-      <c r="B4" s="70">
+      <c r="B4" s="69">
         <v>1</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="72" t="s">
         <v>207</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="72" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="73">
+      <c r="I4" s="72">
         <v>65</v>
       </c>
-      <c r="J4" s="73" t="s">
+      <c r="J4" s="72" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="28.8">
-      <c r="B5" s="70">
+      <c r="B5" s="69">
         <v>2</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="72" t="s">
         <v>212</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="72" t="s">
         <v>213</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="73">
+      <c r="I5" s="72">
         <v>65</v>
       </c>
-      <c r="J5" s="73" t="s">
+      <c r="J5" s="72" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="28.8">
-      <c r="B6" s="70">
+      <c r="B6" s="69">
         <v>3</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="72" t="s">
         <v>215</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E6" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="F6" s="73" t="s">
+      <c r="F6" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="G6" s="73" t="s">
+      <c r="G6" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="73" t="s">
+      <c r="H6" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="73">
+      <c r="I6" s="72">
         <v>65</v>
       </c>
-      <c r="J6" s="73" t="s">
+      <c r="J6" s="72" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="28.8">
-      <c r="B7" s="70">
+      <c r="B7" s="69">
         <v>4</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="72" t="s">
         <v>218</v>
       </c>
-      <c r="E7" s="73" t="s">
+      <c r="E7" s="72" t="s">
         <v>219</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="G7" s="73" t="s">
+      <c r="G7" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="73" t="s">
+      <c r="H7" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="73">
+      <c r="I7" s="72">
         <v>65</v>
       </c>
-      <c r="J7" s="73" t="s">
+      <c r="J7" s="72" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="70"/>
-      <c r="C8" s="119" t="s">
+      <c r="B8" s="69"/>
+      <c r="C8" s="118" t="s">
         <v>220</v>
       </c>
-      <c r="D8" s="120"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="123"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="122"/>
     </row>
     <row r="9" spans="2:10" ht="57.6">
-      <c r="B9" s="70">
+      <c r="B9" s="69">
         <v>5</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="72" t="s">
         <v>221</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="72" t="s">
         <v>222</v>
       </c>
-      <c r="E9" s="73" t="s">
+      <c r="E9" s="72" t="s">
         <v>223</v>
       </c>
-      <c r="F9" s="73" t="s">
+      <c r="F9" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="G9" s="73" t="s">
+      <c r="G9" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="H9" s="73" t="s">
+      <c r="H9" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="I9" s="73">
+      <c r="I9" s="72">
         <v>65</v>
       </c>
-      <c r="J9" s="73" t="s">
+      <c r="J9" s="72" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="57.6">
-      <c r="B10" s="70">
+      <c r="B10" s="69">
         <v>6</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="72" t="s">
         <v>229</v>
       </c>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="72" t="s">
         <v>230</v>
       </c>
-      <c r="F10" s="73" t="s">
+      <c r="F10" s="72" t="s">
         <v>231</v>
       </c>
-      <c r="G10" s="73" t="s">
+      <c r="G10" s="72" t="s">
         <v>232</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73">
+      <c r="H10" s="72"/>
+      <c r="I10" s="72">
         <v>65</v>
       </c>
-      <c r="J10" s="73" t="s">
+      <c r="J10" s="72" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="100.8">
-      <c r="B11" s="70">
+      <c r="B11" s="69">
         <v>7</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="72" t="s">
         <v>234</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="72" t="s">
         <v>235</v>
       </c>
-      <c r="E11" s="73" t="s">
+      <c r="E11" s="72" t="s">
         <v>236</v>
       </c>
-      <c r="F11" s="73" t="s">
+      <c r="F11" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="G11" s="73" t="s">
+      <c r="G11" s="72" t="s">
         <v>237</v>
       </c>
-      <c r="H11" s="73" t="s">
+      <c r="H11" s="72" t="s">
         <v>238</v>
       </c>
-      <c r="I11" s="73">
+      <c r="I11" s="72">
         <v>65</v>
       </c>
-      <c r="J11" s="73" t="s">
+      <c r="J11" s="72" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="57.6">
-      <c r="B12" s="70">
+      <c r="B12" s="69">
         <v>8</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="72" t="s">
         <v>240</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="72" t="s">
         <v>241</v>
       </c>
-      <c r="E12" s="73" t="s">
+      <c r="E12" s="72" t="s">
         <v>242</v>
       </c>
-      <c r="F12" s="73" t="s">
+      <c r="F12" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="G12" s="73" t="s">
+      <c r="G12" s="72" t="s">
         <v>243</v>
       </c>
-      <c r="H12" s="73" t="s">
+      <c r="H12" s="72" t="s">
         <v>244</v>
       </c>
-      <c r="I12" s="73">
+      <c r="I12" s="72">
         <v>65</v>
       </c>
-      <c r="J12" s="73" t="s">
+      <c r="J12" s="72" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="28.8">
-      <c r="B13" s="70">
+      <c r="B13" s="69">
         <v>9</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="72" t="s">
         <v>246</v>
       </c>
-      <c r="E13" s="73" t="s">
+      <c r="E13" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="F13" s="73" t="s">
+      <c r="F13" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="G13" s="73" t="s">
+      <c r="G13" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="73" t="s">
+      <c r="H13" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="73">
+      <c r="I13" s="72">
         <v>65</v>
       </c>
-      <c r="J13" s="73" t="s">
+      <c r="J13" s="72" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="28.8">
-      <c r="B14" s="70">
+      <c r="B14" s="69">
         <v>10</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="72" t="s">
         <v>249</v>
       </c>
-      <c r="E14" s="73" t="s">
+      <c r="E14" s="72" t="s">
         <v>250</v>
       </c>
-      <c r="F14" s="73" t="s">
+      <c r="F14" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="G14" s="73" t="s">
+      <c r="G14" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="73" t="s">
+      <c r="H14" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="73">
+      <c r="I14" s="72">
         <v>65</v>
       </c>
-      <c r="J14" s="73" t="s">
+      <c r="J14" s="72" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="43.2">
-      <c r="B15" s="70">
+      <c r="B15" s="69">
         <v>11</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="72" t="s">
         <v>251</v>
       </c>
-      <c r="D15" s="73" t="s">
+      <c r="D15" s="72" t="s">
         <v>252</v>
       </c>
-      <c r="E15" s="73" t="s">
+      <c r="E15" s="72" t="s">
         <v>253</v>
       </c>
-      <c r="F15" s="73" t="s">
+      <c r="F15" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="G15" s="73" t="s">
+      <c r="G15" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="73" t="s">
+      <c r="H15" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="73">
+      <c r="I15" s="72">
         <v>65</v>
       </c>
-      <c r="J15" s="73" t="s">
+      <c r="J15" s="72" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="28.8">
-      <c r="B16" s="70">
+      <c r="B16" s="69">
         <v>12</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="D16" s="73" t="s">
+      <c r="D16" s="72" t="s">
         <v>254</v>
       </c>
-      <c r="E16" s="73" t="s">
+      <c r="E16" s="72" t="s">
         <v>255</v>
       </c>
-      <c r="F16" s="73" t="s">
+      <c r="F16" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="G16" s="73" t="s">
+      <c r="G16" s="72" t="s">
         <v>256</v>
       </c>
-      <c r="H16" s="73" t="s">
+      <c r="H16" s="72" t="s">
         <v>257</v>
       </c>
-      <c r="I16" s="73">
+      <c r="I16" s="72">
         <v>65</v>
       </c>
-      <c r="J16" s="73" t="s">
+      <c r="J16" s="72" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="43.2">
-      <c r="B17" s="70">
+      <c r="B17" s="69">
         <v>13</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="D17" s="73" t="s">
+      <c r="D17" s="72" t="s">
         <v>259</v>
       </c>
-      <c r="E17" s="73" t="s">
+      <c r="E17" s="72" t="s">
         <v>260</v>
       </c>
-      <c r="F17" s="73" t="s">
+      <c r="F17" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="G17" s="73" t="s">
+      <c r="G17" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="73" t="s">
+      <c r="H17" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="73">
+      <c r="I17" s="72">
         <v>65</v>
       </c>
-      <c r="J17" s="73" t="s">
+      <c r="J17" s="72" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="70"/>
-      <c r="C18" s="119" t="s">
+      <c r="B18" s="69"/>
+      <c r="C18" s="118" t="s">
         <v>261</v>
       </c>
-      <c r="D18" s="120"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="123"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="122"/>
     </row>
     <row r="19" spans="2:10" ht="28.8">
-      <c r="B19" s="70">
+      <c r="B19" s="69">
         <v>14</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="72" t="s">
         <v>262</v>
       </c>
-      <c r="D19" s="73" t="s">
+      <c r="D19" s="72" t="s">
         <v>263</v>
       </c>
-      <c r="E19" s="73" t="s">
+      <c r="E19" s="72" t="s">
         <v>264</v>
       </c>
-      <c r="F19" s="73" t="s">
+      <c r="F19" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="G19" s="73" t="s">
+      <c r="G19" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="73" t="s">
+      <c r="H19" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="73">
+      <c r="I19" s="72">
         <v>65</v>
       </c>
-      <c r="J19" s="73" t="s">
+      <c r="J19" s="72" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="57.6">
-      <c r="B20" s="70">
+      <c r="B20" s="69">
         <v>15</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="72" t="s">
         <v>265</v>
       </c>
-      <c r="D20" s="73" t="s">
+      <c r="D20" s="72" t="s">
         <v>266</v>
       </c>
-      <c r="E20" s="73" t="s">
+      <c r="E20" s="72" t="s">
         <v>267</v>
       </c>
-      <c r="F20" s="73" t="s">
+      <c r="F20" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="G20" s="73" t="s">
+      <c r="G20" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="73" t="s">
+      <c r="H20" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="I20" s="73">
+      <c r="I20" s="72">
         <v>65</v>
       </c>
-      <c r="J20" s="73" t="s">
+      <c r="J20" s="72" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="57.6">
-      <c r="B21" s="70">
+      <c r="B21" s="69">
         <v>16</v>
       </c>
-      <c r="C21" s="73" t="s">
+      <c r="C21" s="72" t="s">
         <v>221</v>
       </c>
-      <c r="D21" s="73" t="s">
+      <c r="D21" s="72" t="s">
         <v>222</v>
       </c>
-      <c r="E21" s="73" t="s">
+      <c r="E21" s="72" t="s">
         <v>223</v>
       </c>
-      <c r="F21" s="73" t="s">
+      <c r="F21" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="G21" s="73" t="s">
+      <c r="G21" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="H21" s="73" t="s">
+      <c r="H21" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="I21" s="73">
+      <c r="I21" s="72">
         <v>65</v>
       </c>
-      <c r="J21" s="73" t="s">
+      <c r="J21" s="72" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="28.8">
-      <c r="B22" s="70">
+      <c r="B22" s="69">
         <v>17</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="D22" s="73" t="s">
+      <c r="D22" s="72" t="s">
         <v>269</v>
       </c>
-      <c r="E22" s="73" t="s">
+      <c r="E22" s="72" t="s">
         <v>270</v>
       </c>
-      <c r="F22" s="73" t="s">
+      <c r="F22" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="G22" s="73" t="s">
+      <c r="G22" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="73" t="s">
+      <c r="H22" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="73">
+      <c r="I22" s="72">
         <v>65</v>
       </c>
-      <c r="J22" s="73" t="s">
+      <c r="J22" s="72" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="43.2">
-      <c r="B23" s="70">
+      <c r="B23" s="69">
         <v>18</v>
       </c>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="72" t="s">
         <v>271</v>
       </c>
-      <c r="D23" s="73" t="s">
+      <c r="D23" s="72" t="s">
         <v>272</v>
       </c>
-      <c r="E23" s="73" t="s">
+      <c r="E23" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="F23" s="73" t="s">
+      <c r="F23" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="G23" s="73" t="s">
+      <c r="G23" s="72" t="s">
         <v>273</v>
       </c>
-      <c r="H23" s="73" t="s">
+      <c r="H23" s="72" t="s">
         <v>274</v>
       </c>
-      <c r="I23" s="73">
+      <c r="I23" s="72">
         <v>65</v>
       </c>
-      <c r="J23" s="73" t="s">
+      <c r="J23" s="72" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="28.8">
-      <c r="B24" s="70">
+      <c r="B24" s="69">
         <v>19</v>
       </c>
-      <c r="C24" s="73" t="s">
+      <c r="C24" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="D24" s="73" t="s">
+      <c r="D24" s="72" t="s">
         <v>275</v>
       </c>
-      <c r="E24" s="73" t="s">
+      <c r="E24" s="72" t="s">
         <v>276</v>
       </c>
-      <c r="F24" s="73" t="s">
+      <c r="F24" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="G24" s="73" t="s">
+      <c r="G24" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="73" t="s">
+      <c r="H24" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="I24" s="73">
+      <c r="I24" s="72">
         <v>65</v>
       </c>
-      <c r="J24" s="73" t="s">
+      <c r="J24" s="72" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="43.2">
-      <c r="B25" s="70">
+      <c r="B25" s="69">
         <v>20</v>
       </c>
-      <c r="C25" s="73" t="s">
+      <c r="C25" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="D25" s="73" t="s">
+      <c r="D25" s="72" t="s">
         <v>277</v>
       </c>
-      <c r="E25" s="73" t="s">
+      <c r="E25" s="72" t="s">
         <v>260</v>
       </c>
-      <c r="F25" s="73" t="s">
+      <c r="F25" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="G25" s="73" t="s">
+      <c r="G25" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="73" t="s">
+      <c r="H25" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="I25" s="73">
+      <c r="I25" s="72">
         <v>65</v>
       </c>
-      <c r="J25" s="73" t="s">
+      <c r="J25" s="72" t="s">
         <v>211</v>
       </c>
     </row>

--- a/N65_HappyLunch.xlsx
+++ b/N65_HappyLunch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\apk\Happy_Lunch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A2F3EF-E92B-473F-A007-1CBE565BC4E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0BC9EC-02AB-487E-8027-3AD1D4EA7C3E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Profile" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="201">
   <si>
     <t>NHÓM 65: HAPPY LUNCH</t>
   </si>
@@ -623,6 +623,9 @@
   </si>
   <si>
     <t>Chức năng add nhân viên</t>
+  </si>
+  <si>
+    <t>UAT</t>
   </si>
 </sst>
 </file>
@@ -1301,6 +1304,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="16" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="16" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1310,15 +1349,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="16" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1349,9 +1379,6 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1386,30 +1413,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -1913,7 +1916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:H69"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
@@ -3114,10 +3117,18 @@
       <c r="B66" s="6">
         <v>57</v>
       </c>
-      <c r="C66" s="33"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
+      <c r="C66" s="37">
+        <v>43616</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="G66" s="10"/>
     </row>
     <row r="67" spans="2:7">
@@ -3168,7 +3179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
@@ -3187,56 +3198,56 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="25.8">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
     </row>
     <row r="5" spans="1:9" ht="21">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
     </row>
     <row r="7" spans="1:9" ht="18">
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="87" t="s">
+      <c r="D7" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="78" t="s">
+      <c r="F7" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="91" t="s">
+      <c r="G7" s="88"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="99" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18">
-      <c r="B8" s="82"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="90"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="98"/>
       <c r="F8" s="44" t="s">
         <v>60</v>
       </c>
@@ -3246,13 +3257,13 @@
       <c r="H8" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="92"/>
+      <c r="I8" s="100"/>
     </row>
     <row r="9" spans="1:9" ht="18">
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="76" t="s">
         <v>93</v>
       </c>
       <c r="D9" s="46" t="s">
@@ -3271,8 +3282,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="18">
-      <c r="B10" s="71"/>
-      <c r="C10" s="74"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="48" t="s">
         <v>65</v>
       </c>
@@ -3291,8 +3302,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="18">
-      <c r="B11" s="71"/>
-      <c r="C11" s="74"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="48" t="s">
         <v>68</v>
       </c>
@@ -3309,8 +3320,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="18">
-      <c r="B12" s="71"/>
-      <c r="C12" s="74"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="48" t="s">
         <v>70</v>
       </c>
@@ -3327,8 +3338,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.600000000000001" thickBot="1">
-      <c r="B13" s="72"/>
-      <c r="C13" s="75"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="49" t="s">
         <v>71</v>
       </c>
@@ -3346,10 +3357,10 @@
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1">
       <c r="A14" s="50"/>
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="102" t="s">
+      <c r="C14" s="73" t="s">
         <v>92</v>
       </c>
       <c r="D14" s="51" t="s">
@@ -3369,8 +3380,8 @@
     </row>
     <row r="15" spans="1:9" ht="18">
       <c r="A15" s="50"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="103"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="74"/>
       <c r="D15" s="53" t="s">
         <v>127</v>
       </c>
@@ -3388,8 +3399,8 @@
     </row>
     <row r="16" spans="1:9" ht="18">
       <c r="A16" s="50"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="103"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="53" t="s">
         <v>130</v>
       </c>
@@ -3407,8 +3418,8 @@
     </row>
     <row r="17" spans="1:9" ht="18">
       <c r="A17" s="50"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="103"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="53" t="s">
         <v>128</v>
       </c>
@@ -3426,8 +3437,8 @@
     </row>
     <row r="18" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A18" s="50"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="104"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="54" t="s">
         <v>129</v>
       </c>
@@ -3445,10 +3456,10 @@
     </row>
     <row r="19" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A19" s="50"/>
-      <c r="B19" s="96">
+      <c r="B19" s="104">
         <v>43712</v>
       </c>
-      <c r="C19" s="86" t="s">
+      <c r="C19" s="76" t="s">
         <v>91</v>
       </c>
       <c r="D19" s="46" t="s">
@@ -3468,8 +3479,8 @@
     </row>
     <row r="20" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A20" s="50"/>
-      <c r="B20" s="97"/>
-      <c r="C20" s="74"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="77"/>
       <c r="D20" s="48" t="s">
         <v>132</v>
       </c>
@@ -3487,8 +3498,8 @@
     </row>
     <row r="21" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A21" s="50"/>
-      <c r="B21" s="97"/>
-      <c r="C21" s="74"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="77"/>
       <c r="D21" s="48" t="s">
         <v>133</v>
       </c>
@@ -3506,8 +3517,8 @@
     </row>
     <row r="22" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A22" s="50"/>
-      <c r="B22" s="97"/>
-      <c r="C22" s="74"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="77"/>
       <c r="D22" s="48" t="s">
         <v>76</v>
       </c>
@@ -3525,8 +3536,8 @@
     </row>
     <row r="23" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A23" s="50"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="75"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="49" t="s">
         <v>77</v>
       </c>
@@ -3544,10 +3555,10 @@
     </row>
     <row r="24" spans="1:9" ht="18">
       <c r="A24" s="50"/>
-      <c r="B24" s="99" t="s">
+      <c r="B24" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="102" t="s">
+      <c r="C24" s="73" t="s">
         <v>102</v>
       </c>
       <c r="D24" s="51" t="s">
@@ -3567,8 +3578,8 @@
     </row>
     <row r="25" spans="1:9" ht="18">
       <c r="A25" s="50"/>
-      <c r="B25" s="100"/>
-      <c r="C25" s="103"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="74"/>
       <c r="D25" s="53" t="s">
         <v>134</v>
       </c>
@@ -3586,8 +3597,8 @@
     </row>
     <row r="26" spans="1:9" ht="18">
       <c r="A26" s="50"/>
-      <c r="B26" s="100"/>
-      <c r="C26" s="103"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="74"/>
       <c r="D26" s="53" t="s">
         <v>135</v>
       </c>
@@ -3605,8 +3616,8 @@
     </row>
     <row r="27" spans="1:9" ht="18">
       <c r="A27" s="50"/>
-      <c r="B27" s="100"/>
-      <c r="C27" s="103"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="74"/>
       <c r="D27" s="53" t="s">
         <v>99</v>
       </c>
@@ -3624,8 +3635,8 @@
     </row>
     <row r="28" spans="1:9" ht="18">
       <c r="A28" s="50"/>
-      <c r="B28" s="101"/>
-      <c r="C28" s="105"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="79"/>
       <c r="D28" s="55" t="s">
         <v>100</v>
       </c>
@@ -3643,10 +3654,10 @@
     </row>
     <row r="29" spans="1:9" ht="18">
       <c r="A29" s="50"/>
-      <c r="B29" s="83" t="s">
+      <c r="B29" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="73">
+      <c r="C29" s="80">
         <v>43588</v>
       </c>
       <c r="D29" s="46" t="s">
@@ -3666,8 +3677,8 @@
     </row>
     <row r="30" spans="1:9" ht="18">
       <c r="A30" s="50"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="74"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="77"/>
       <c r="D30" s="48" t="s">
         <v>137</v>
       </c>
@@ -3685,8 +3696,8 @@
     </row>
     <row r="31" spans="1:9" ht="18">
       <c r="A31" s="50"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="74"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="77"/>
       <c r="D31" s="48" t="s">
         <v>126</v>
       </c>
@@ -3704,8 +3715,8 @@
     </row>
     <row r="32" spans="1:9" ht="18">
       <c r="A32" s="50"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="74"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="77"/>
       <c r="D32" s="48" t="s">
         <v>139</v>
       </c>
@@ -3723,8 +3734,8 @@
     </row>
     <row r="33" spans="1:9" ht="18">
       <c r="A33" s="50"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="75"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="78"/>
       <c r="D33" s="49" t="s">
         <v>136</v>
       </c>
@@ -3742,10 +3753,10 @@
     </row>
     <row r="34" spans="1:9" ht="18">
       <c r="A34" s="50"/>
-      <c r="B34" s="99">
+      <c r="B34" s="70">
         <v>43588</v>
       </c>
-      <c r="C34" s="106">
+      <c r="C34" s="81">
         <v>43589</v>
       </c>
       <c r="D34" s="51" t="s">
@@ -3765,8 +3776,8 @@
     </row>
     <row r="35" spans="1:9" ht="18">
       <c r="A35" s="50"/>
-      <c r="B35" s="100"/>
-      <c r="C35" s="103"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="74"/>
       <c r="D35" s="53" t="s">
         <v>142</v>
       </c>
@@ -3784,8 +3795,8 @@
     </row>
     <row r="36" spans="1:9" ht="18">
       <c r="A36" s="50"/>
-      <c r="B36" s="100"/>
-      <c r="C36" s="103"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="53" t="s">
         <v>138</v>
       </c>
@@ -3803,8 +3814,8 @@
     </row>
     <row r="37" spans="1:9" ht="18">
       <c r="A37" s="50"/>
-      <c r="B37" s="100"/>
-      <c r="C37" s="103"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="74"/>
       <c r="D37" s="53" t="s">
         <v>141</v>
       </c>
@@ -3822,8 +3833,8 @@
     </row>
     <row r="38" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A38" s="50"/>
-      <c r="B38" s="101"/>
-      <c r="C38" s="105"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="79"/>
       <c r="D38" s="55" t="s">
         <v>140</v>
       </c>
@@ -3841,8 +3852,8 @@
     </row>
     <row r="39" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A39" s="50"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="73"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="80"/>
       <c r="D39" s="63"/>
       <c r="E39" s="46"/>
       <c r="F39" s="46"/>
@@ -3852,8 +3863,8 @@
     </row>
     <row r="40" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A40" s="50"/>
-      <c r="B40" s="71"/>
-      <c r="C40" s="74"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="77"/>
       <c r="D40" s="63"/>
       <c r="E40" s="48"/>
       <c r="F40" s="48"/>
@@ -3863,8 +3874,8 @@
     </row>
     <row r="41" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A41" s="50"/>
-      <c r="B41" s="71"/>
-      <c r="C41" s="74"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="77"/>
       <c r="D41" s="63"/>
       <c r="E41" s="48"/>
       <c r="F41" s="48"/>
@@ -3874,8 +3885,8 @@
     </row>
     <row r="42" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A42" s="50"/>
-      <c r="B42" s="71"/>
-      <c r="C42" s="74"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="77"/>
       <c r="D42" s="63"/>
       <c r="E42" s="48"/>
       <c r="F42" s="48"/>
@@ -3885,8 +3896,8 @@
     </row>
     <row r="43" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A43" s="50"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="75"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="78"/>
       <c r="D43" s="63"/>
       <c r="E43" s="49"/>
       <c r="F43" s="49"/>
@@ -3989,12 +4000,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="C34:C38"/>
     <mergeCell ref="B39:B43"/>
     <mergeCell ref="C39:C43"/>
     <mergeCell ref="B3:I3"/>
@@ -4011,6 +4016,12 @@
     <mergeCell ref="B19:B23"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C34:C38"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
